--- a/fuentes/contenidos/grado06/guion01/ESCALETA_MA_06_01_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion01/ESCALETA_MA_06_01_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="0" windowWidth="24600" windowHeight="13720" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="1460" yWindow="960" windowWidth="24600" windowHeight="13720" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="367">
   <si>
     <t>Asignatura</t>
   </si>
@@ -800,9 +800,6 @@
     <t>La literatura y las proposiciones</t>
   </si>
   <si>
-    <t>Recurso F13-02</t>
-  </si>
-  <si>
     <t>Recurso F6-03</t>
   </si>
   <si>
@@ -944,27 +941,9 @@
     <t>Determinación de conjuntos</t>
   </si>
   <si>
-    <t>Determina un conjunto por extensión y por comprensión</t>
-  </si>
-  <si>
-    <t>Interactivo que explica la forma de determinar un conjunto</t>
-  </si>
-  <si>
-    <t>Hay que explicar las determinaciones por extensión y por comprensión y plantear buenos ejemplos, interesantes para los niños de esta edad. Proponer cosas de buen nivel</t>
-  </si>
-  <si>
     <t>Clasificación de conjuntos</t>
   </si>
   <si>
-    <t>Clasifica conjuntos según sus elementos</t>
-  </si>
-  <si>
-    <t>Interactivo que explica la forma en la que se pueden clasificar los conjuntos</t>
-  </si>
-  <si>
-    <t>Hay que explicar los tipos de conjuntos (Unitario, vacío, Universal etc) y proponer muy buenos ejemplos de esta clasificación</t>
-  </si>
-  <si>
     <t>Actividad para practicar la determinación y la clasificación de conjuntos</t>
   </si>
   <si>
@@ -1134,6 +1113,18 @@
   </si>
   <si>
     <t>Recurso M102AB-01</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Analizando la solución a una situación problema</t>
+  </si>
+  <si>
+    <t>Hay que explicar las determinaciones por extensión y por comprensión y plantear buenos ejemplos, interesantes para los niños de esta edad. Proponer cosas de buen nivel. Además, Hay que explicar los tipos de conjuntos (Unitario, vacío, Universal etc) y proponer muy buenos ejemplos de esta clasificación.</t>
+  </si>
+  <si>
+    <t>Determina y clasifica conjuntos</t>
+  </si>
+  <si>
+    <t>Interactivo que explica la forma de determinar un conjunto y cómo se clasifica según sus características</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1411,117 +1402,6 @@
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1600,7 +1480,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1653,145 +1533,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1809,42 +1566,118 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6511,10 +6344,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X166"/>
+  <dimension ref="A1:X165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6543,224 +6376,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="33.75" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="F1" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="F1" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="L1" s="82" t="s">
+      <c r="L1" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="84" t="s">
+      <c r="N1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="85"/>
-      <c r="P1" s="78" t="s">
+      <c r="O1" s="44"/>
+      <c r="P1" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="87" t="s">
+      <c r="Q1" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="R1" s="78" t="s">
+      <c r="R1" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="S1" s="90" t="s">
+      <c r="S1" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="T1" s="88" t="s">
+      <c r="T1" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="U1" s="89" t="s">
+      <c r="U1" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="V1" s="88" t="s">
+      <c r="V1" s="35" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="81"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O2" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="88"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="35"/>
     </row>
     <row r="3" spans="1:24" ht="56">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="49">
+        <v>10</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="H3" s="36">
-        <v>10</v>
-      </c>
-      <c r="I3" s="35" t="s">
+      <c r="K3" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="L3" s="38" t="s">
+      <c r="R3" s="55">
+        <v>6</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="V3" s="57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="31" customFormat="1" ht="98">
+      <c r="A4" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="46"/>
+      <c r="G4" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="49">
+        <v>20</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q3" s="41" t="s">
+      <c r="M4" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q4" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="R3">
+      <c r="R4" s="53">
         <v>6</v>
       </c>
-      <c r="S3" t="s">
-        <v>241</v>
-      </c>
-      <c r="T3" t="s">
-        <v>244</v>
-      </c>
-      <c r="U3" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="V3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="31" customFormat="1" ht="98">
-      <c r="A4" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="H4" s="36">
-        <v>20</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q4" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="40">
-        <v>6</v>
-      </c>
-      <c r="S4" s="42" t="s">
+      <c r="S4" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="T4" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="U4" s="44" t="s">
+      <c r="U4" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="V4" s="43" t="s">
+      <c r="V4" s="60" t="s">
         <v>251</v>
       </c>
       <c r="X4" s="31" t="s">
@@ -6768,188 +6601,188 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="31" customFormat="1" ht="30">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="35" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="H5" s="49">
+        <v>30</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="36">
-        <v>30</v>
-      </c>
-      <c r="I5" s="35" t="s">
+      <c r="K5" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q5" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="R5" s="55">
+        <v>6</v>
+      </c>
+      <c r="S5" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="T5" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="U5" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="V5" s="57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="31" customFormat="1" ht="30">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="49">
+        <v>40</v>
+      </c>
+      <c r="I6" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="L5" s="38" t="s">
+      <c r="J6" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="L6" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M6" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="P5" s="40" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q5" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="R5">
+      <c r="N6" s="52"/>
+      <c r="O6" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q6" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="R6" s="55">
         <v>6</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S6" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T6" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="U5" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="U6" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="V6" s="57" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="31" customFormat="1" ht="30">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34" t="s">
+    <row r="7" spans="1:24" s="31" customFormat="1" ht="112">
+      <c r="A7" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D7" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="E7" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="64">
+        <v>50</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="G6" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="H6" s="36">
-        <v>40</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="K6" s="37" t="s">
+      <c r="K7" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L7" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="P6" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q6" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="R6">
+      <c r="M7" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="52"/>
+      <c r="P7" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q7" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="53">
         <v>6</v>
       </c>
-      <c r="S6" t="s">
-        <v>242</v>
-      </c>
-      <c r="T6" t="s">
-        <v>243</v>
-      </c>
-      <c r="U6" s="95" t="s">
-        <v>232</v>
-      </c>
-      <c r="V6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="31" customFormat="1" ht="112">
-      <c r="A7" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="H7" s="46">
-        <v>50</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q7" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="40">
-        <v>6</v>
-      </c>
-      <c r="S7" s="48" t="s">
+      <c r="S7" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="T7" s="43" t="s">
+      <c r="T7" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="U7" s="44" t="s">
+      <c r="U7" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="V7" s="43" t="s">
+      <c r="V7" s="60" t="s">
         <v>250</v>
       </c>
       <c r="X7" s="31" t="s">
@@ -6957,66 +6790,66 @@
       </c>
     </row>
     <row r="8" spans="1:24" s="31" customFormat="1" ht="70">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="H8" s="55">
+      <c r="F8" s="62"/>
+      <c r="G8" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="H8" s="66">
         <v>60</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="P8" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q8" s="41" t="s">
+      <c r="P8" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q8" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="55">
         <v>6</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="U8" s="95" t="s">
-        <v>359</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="U8" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="V8" s="57" t="s">
         <v>251</v>
       </c>
       <c r="X8" s="31" t="s">
@@ -7024,128 +6857,128 @@
       </c>
     </row>
     <row r="9" spans="1:24" s="31" customFormat="1" ht="42">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="G9" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="H9" s="66">
+        <v>70</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="H9" s="55">
-        <v>70</v>
-      </c>
-      <c r="I9" s="49" t="s">
+      <c r="K9" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="52"/>
+      <c r="P9" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="55">
+        <v>6</v>
+      </c>
+      <c r="S9" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="T9" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="U9" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="V9" s="57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="98">
+      <c r="A10" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="H10" s="49">
+        <v>80</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>293</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q10" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q9" s="41"/>
-      <c r="R9">
+      <c r="R10" s="53">
         <v>6</v>
       </c>
-      <c r="S9" t="s">
-        <v>241</v>
-      </c>
-      <c r="T9" t="s">
-        <v>244</v>
-      </c>
-      <c r="U9" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="V9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="98">
-      <c r="A10" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="H10" s="36">
-        <v>80</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q10" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="40">
-        <v>6</v>
-      </c>
-      <c r="S10" s="42" t="s">
+      <c r="S10" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="T10" s="43" t="s">
+      <c r="T10" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="U10" s="44" t="s">
+      <c r="U10" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="V10" s="43" t="s">
+      <c r="V10" s="60" t="s">
         <v>251</v>
       </c>
       <c r="X10" t="s">
@@ -7153,68 +6986,68 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="140">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="F11" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="G11" s="49" t="s">
+      <c r="F11" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="64">
         <v>90</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="50" t="s">
-        <v>268</v>
-      </c>
-      <c r="K11" s="37" t="s">
+      <c r="J11" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q11" s="41" t="s">
+      <c r="O11" s="52"/>
+      <c r="P11" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q11" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="55">
         <v>6</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="U11" s="95" t="s">
+      <c r="U11" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="57" t="s">
         <v>250</v>
       </c>
       <c r="X11" t="s">
@@ -7222,2042 +7055,1969 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="112">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="H12" s="66">
+        <v>100</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="L12" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q12" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="53">
+        <v>6</v>
+      </c>
+      <c r="S12" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="T12" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="U12" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="V12" s="60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="28">
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="H13" s="72">
+        <v>110</v>
+      </c>
+      <c r="I13" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>298</v>
+      </c>
+      <c r="K13" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="L13" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q13" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="55">
+        <v>6</v>
+      </c>
+      <c r="S13" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="T13" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="U13" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="V13" s="57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="70">
+      <c r="A14" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="62"/>
+      <c r="G14" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="H14" s="49">
+        <v>120</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="L14" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q14" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" s="53">
+        <v>6</v>
+      </c>
+      <c r="S14" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="T14" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="U14" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="V14" s="60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="28">
+      <c r="A15" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="H15" s="49">
+        <v>130</v>
+      </c>
+      <c r="I15" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="P15" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q15" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="53">
+        <v>6</v>
+      </c>
+      <c r="S15" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="T15" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="U15" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="V15" s="60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="56">
+      <c r="A16" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>365</v>
+      </c>
+      <c r="H16" s="64">
+        <v>140</v>
+      </c>
+      <c r="I16" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="O16" s="52"/>
+      <c r="P16" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q16" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="55">
+        <v>6</v>
+      </c>
+      <c r="S16" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="T16" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="U16" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="V16" s="57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="28">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="H17" s="66">
+        <v>150</v>
+      </c>
+      <c r="I17" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P17" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q17" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="R17" s="55">
+        <v>6</v>
+      </c>
+      <c r="S17" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="T17" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="U17" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="V17" s="57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="28">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="F18" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="H18" s="66">
+        <v>160</v>
+      </c>
+      <c r="I18" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="L18" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="O18" s="52"/>
+      <c r="P18" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q18" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="R18" s="55">
+        <v>6</v>
+      </c>
+      <c r="S18" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="T18" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="U18" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="V18" s="57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="28">
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="62"/>
+      <c r="G19" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="H19" s="66">
+        <v>170</v>
+      </c>
+      <c r="I19" s="65"/>
+      <c r="J19" s="67" t="s">
+        <v>313</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="L19" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q19" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="R19" s="55">
+        <v>6</v>
+      </c>
+      <c r="S19" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="T19" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="U19" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="V19" s="57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="G20" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="H20" s="66">
+        <v>180</v>
+      </c>
+      <c r="I20" s="65"/>
+      <c r="J20" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q20" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="55">
+        <v>6</v>
+      </c>
+      <c r="S20" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="T20" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="U20" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="V20" s="57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="140">
+      <c r="A21" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" s="62"/>
+      <c r="G21" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="H21" s="64">
+        <v>190</v>
+      </c>
+      <c r="I21" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q21" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" s="55">
+        <v>6</v>
+      </c>
+      <c r="S21" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="T21" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="U21" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="V21" s="57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="56">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" s="62"/>
+      <c r="G22" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="H22" s="64">
+        <v>200</v>
+      </c>
+      <c r="I22" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="67" t="s">
+        <v>318</v>
+      </c>
+      <c r="K22" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" s="52"/>
+      <c r="P22" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q22" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="55">
+        <v>6</v>
+      </c>
+      <c r="S22" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="T22" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="U22" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="V22" s="57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="28">
+      <c r="A23" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23" s="62"/>
+      <c r="G23" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="H23" s="66">
+        <v>210</v>
+      </c>
+      <c r="I23" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P23" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q23" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" s="55">
+        <v>6</v>
+      </c>
+      <c r="S23" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="T23" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="U23" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="V23" s="57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="84">
+      <c r="A24" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="62"/>
+      <c r="G24" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="H24" s="49">
+        <v>220</v>
+      </c>
+      <c r="I24" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="K24" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="L24" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q24" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="55">
+        <v>6</v>
+      </c>
+      <c r="S24" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="T24" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="U24" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="V24" s="57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="88.5" customHeight="1">
+      <c r="A25" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="62"/>
+      <c r="G25" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="H25" s="49">
+        <v>230</v>
+      </c>
+      <c r="I25" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q25" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="55">
+        <v>6</v>
+      </c>
+      <c r="S25" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="T25" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="U25" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="V25" s="57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="28">
+      <c r="A26" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="62"/>
+      <c r="G26" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="H26" s="64">
+        <v>240</v>
+      </c>
+      <c r="I26" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q26" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" s="55">
+        <v>6</v>
+      </c>
+      <c r="S26" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="T26" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="U26" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="V26" s="57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="42">
+      <c r="A27" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" s="62"/>
+      <c r="G27" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="H27" s="64">
+        <v>250</v>
+      </c>
+      <c r="I27" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="67" t="s">
+        <v>333</v>
+      </c>
+      <c r="K27" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="N27" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27" s="52"/>
+      <c r="P27" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q27" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="R27" s="55">
+        <v>6</v>
+      </c>
+      <c r="S27" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="T27" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="U27" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="V27" s="57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15">
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="79"/>
+      <c r="E28" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="65" t="s">
+        <v>334</v>
+      </c>
+      <c r="H28" s="64">
+        <v>260</v>
+      </c>
+      <c r="I28" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="K28" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q28" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="55">
+        <v>6</v>
+      </c>
+      <c r="S28" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="T28" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="U28" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="V28" s="57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="28">
+      <c r="A29" s="45"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="79"/>
+      <c r="E29" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" s="62"/>
+      <c r="G29" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="H29" s="64">
+        <v>270</v>
+      </c>
+      <c r="I29" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="K29" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P29" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q29" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="R29" s="55">
+        <v>6</v>
+      </c>
+      <c r="S29" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="T29" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="U29" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="V29" s="57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="56">
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="79"/>
+      <c r="E30" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30" s="62"/>
+      <c r="G30" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="H30" s="64">
+        <v>280</v>
+      </c>
+      <c r="I30" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="K30" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="L30" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="N30" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="O30" s="52"/>
+      <c r="P30" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q30" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" s="55">
+        <v>6</v>
+      </c>
+      <c r="S30" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="T30" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="U30" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="V30" s="57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="28">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>343</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="F31" s="62"/>
+      <c r="G31" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="H31" s="64">
         <v>290</v>
       </c>
-      <c r="G12" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="H12" s="55">
-        <v>100</v>
-      </c>
-      <c r="I12" s="49" t="s">
+      <c r="I31" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="K12" s="37" t="s">
+      <c r="J31" s="67" t="s">
+        <v>346</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="L31" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q31" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="R31" s="55">
+        <v>6</v>
+      </c>
+      <c r="S31" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="T31" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="U31" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="V31" s="57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="28">
+      <c r="A32" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>343</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="62"/>
+      <c r="G32" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="66">
+        <v>300</v>
+      </c>
+      <c r="I32" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="L32" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q32" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="53"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="82"/>
+    </row>
+    <row r="33" spans="1:22" s="31" customFormat="1" ht="28">
+      <c r="A33" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>343</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="F33" s="62"/>
+      <c r="G33" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="H33" s="49">
+        <v>310</v>
+      </c>
+      <c r="I33" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="K33" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L33" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q12" s="41" t="s">
+      <c r="M33" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="P33" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q33" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="40">
+      <c r="R33" s="55">
         <v>6</v>
       </c>
-      <c r="S12" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="T12" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="U12" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="V12" s="43" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="28">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="H13" s="66">
-        <v>110</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="68" t="s">
-        <v>299</v>
-      </c>
-      <c r="K13" s="69" t="s">
-        <v>215</v>
-      </c>
-      <c r="L13" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="P13" s="72" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q13" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13">
-        <v>6</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="S33" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T33" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="U13" s="95" t="s">
-        <v>360</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="U33" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="V33" s="57" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="70">
-      <c r="A14" s="32" t="s">
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="59" t="s">
-        <v>270</v>
-      </c>
-      <c r="H14" s="36">
-        <v>120</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="P14" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q14" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="40">
-        <v>6</v>
-      </c>
-      <c r="S14" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="T14" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="U14" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="V14" s="43" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="28">
-      <c r="A15" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="59" t="s">
-        <v>301</v>
-      </c>
-      <c r="H15" s="36">
-        <v>130</v>
-      </c>
-      <c r="I15" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="P15" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q15" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="40">
-        <v>6</v>
-      </c>
-      <c r="S15" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="T15" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="U15" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="V15" s="43" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="28">
-      <c r="A16" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>304</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="H16" s="46">
-        <v>140</v>
-      </c>
-      <c r="I16" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="50" t="s">
-        <v>307</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="L16" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="N16" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q16" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="96">
-        <v>6</v>
-      </c>
-      <c r="S16" s="96" t="s">
-        <v>241</v>
-      </c>
-      <c r="T16" s="96" t="s">
-        <v>244</v>
-      </c>
-      <c r="U16" s="97" t="s">
-        <v>256</v>
-      </c>
-      <c r="V16" s="96" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="28">
-      <c r="A17" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>304</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>309</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="H17" s="55">
-        <v>150</v>
-      </c>
-      <c r="I17" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="50" t="s">
-        <v>311</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="N17" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q17" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17">
-        <v>6</v>
-      </c>
-      <c r="S17" t="s">
-        <v>241</v>
-      </c>
-      <c r="T17" t="s">
-        <v>244</v>
-      </c>
-      <c r="U17" s="95" t="s">
-        <v>258</v>
-      </c>
-      <c r="V17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="28">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>304</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>309</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="H18" s="55">
-        <v>160</v>
-      </c>
-      <c r="I18" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="50" t="s">
-        <v>313</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="L18" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="P18" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q18" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="R18">
-        <v>6</v>
-      </c>
-      <c r="S18" t="s">
-        <v>242</v>
-      </c>
-      <c r="T18" t="s">
-        <v>243</v>
-      </c>
-      <c r="U18" s="95" t="s">
-        <v>246</v>
-      </c>
-      <c r="V18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="28">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>304</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="55">
-        <v>170</v>
-      </c>
-      <c r="I19" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="50" t="s">
-        <v>317</v>
-      </c>
-      <c r="K19" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M19" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="N19" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="O19" s="39"/>
-      <c r="P19" s="47" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q19" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="R19">
-        <v>6</v>
-      </c>
-      <c r="S19" t="s">
-        <v>241</v>
-      </c>
-      <c r="T19" t="s">
-        <v>244</v>
-      </c>
-      <c r="U19" s="95" t="s">
-        <v>259</v>
-      </c>
-      <c r="V19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="28">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="49" t="s">
-        <v>318</v>
-      </c>
-      <c r="H20" s="55">
-        <v>180</v>
-      </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="P20" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q20" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="R20">
-        <v>6</v>
-      </c>
-      <c r="S20" t="s">
-        <v>242</v>
-      </c>
-      <c r="T20" t="s">
-        <v>243</v>
-      </c>
-      <c r="U20" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="V20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="15">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="H21" s="55">
-        <v>190</v>
-      </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="P21" s="47" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q21" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21">
-        <v>6</v>
-      </c>
-      <c r="S21" t="s">
-        <v>242</v>
-      </c>
-      <c r="T21" t="s">
-        <v>243</v>
-      </c>
-      <c r="U21" s="95" t="s">
-        <v>362</v>
-      </c>
-      <c r="V21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="140">
-      <c r="A22" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="59" t="s">
-        <v>270</v>
-      </c>
-      <c r="H22" s="46">
-        <v>200</v>
-      </c>
-      <c r="I22" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="50" t="s">
-        <v>323</v>
-      </c>
-      <c r="K22" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="L22" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="P22" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q22" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="96">
-        <v>6</v>
-      </c>
-      <c r="S22" s="96" t="s">
-        <v>242</v>
-      </c>
-      <c r="T22" s="96" t="s">
-        <v>243</v>
-      </c>
-      <c r="U22" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="V22" s="96" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="56">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="59" t="s">
-        <v>324</v>
-      </c>
-      <c r="H23" s="91">
-        <v>210</v>
-      </c>
-      <c r="I23" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="K23" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="L23" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M23" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="N23" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="O23" s="39"/>
-      <c r="P23" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q23" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="R23">
-        <v>6</v>
-      </c>
-      <c r="S23" t="s">
-        <v>241</v>
-      </c>
-      <c r="T23" t="s">
-        <v>244</v>
-      </c>
-      <c r="U23" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="V23" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="28">
-      <c r="A24" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="49" t="s">
-        <v>331</v>
-      </c>
-      <c r="H24" s="55">
-        <v>220</v>
-      </c>
-      <c r="I24" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="K24" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="L24" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M24" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="P24" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q24" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24">
-        <v>6</v>
-      </c>
-      <c r="S24" t="s">
-        <v>242</v>
-      </c>
-      <c r="T24" t="s">
-        <v>243</v>
-      </c>
-      <c r="U24" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="V24" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="84">
-      <c r="A25" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="H25" s="36">
-        <v>230</v>
-      </c>
-      <c r="I25" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="50" t="s">
-        <v>330</v>
-      </c>
-      <c r="K25" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="L25" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="P25" s="94" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q25" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R25">
-        <v>6</v>
-      </c>
-      <c r="S25" t="s">
-        <v>242</v>
-      </c>
-      <c r="T25" t="s">
-        <v>243</v>
-      </c>
-      <c r="U25" s="95" t="s">
-        <v>363</v>
-      </c>
-      <c r="V25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="88.5" customHeight="1">
-      <c r="A26" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="H26" s="36">
-        <v>240</v>
-      </c>
-      <c r="I26" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="K26" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="L26" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M26" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="P26" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q26" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26">
-        <v>6</v>
-      </c>
-      <c r="S26" t="s">
-        <v>242</v>
-      </c>
-      <c r="T26" t="s">
-        <v>243</v>
-      </c>
-      <c r="U26" s="95" t="s">
-        <v>237</v>
-      </c>
-      <c r="V26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="28">
-      <c r="A27" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="H27" s="46">
-        <v>250</v>
-      </c>
-      <c r="I27" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="K27" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="L27" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M27" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="P27" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q27" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27">
-        <v>6</v>
-      </c>
-      <c r="S27" t="s">
-        <v>242</v>
-      </c>
-      <c r="T27" t="s">
-        <v>243</v>
-      </c>
-      <c r="U27" s="95" t="s">
-        <v>364</v>
-      </c>
-      <c r="V27" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="42">
-      <c r="A28" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D28" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="59" t="s">
-        <v>338</v>
-      </c>
-      <c r="H28" s="58">
-        <v>260</v>
-      </c>
-      <c r="I28" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="50" t="s">
-        <v>340</v>
-      </c>
-      <c r="K28" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="L28" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M28" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="N28" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="47" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q28" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28">
-        <v>6</v>
-      </c>
-      <c r="S28" t="s">
-        <v>241</v>
-      </c>
-      <c r="T28" t="s">
-        <v>244</v>
-      </c>
-      <c r="U28" s="95" t="s">
-        <v>365</v>
-      </c>
-      <c r="V28" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="15">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="H29" s="91">
-        <v>270</v>
-      </c>
-      <c r="I29" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="50" t="s">
-        <v>343</v>
-      </c>
-      <c r="K29" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="L29" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M29" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="P29" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q29" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R29">
-        <v>6</v>
-      </c>
-      <c r="S29" t="s">
-        <v>242</v>
-      </c>
-      <c r="T29" t="s">
-        <v>243</v>
-      </c>
-      <c r="U29" s="95" t="s">
-        <v>366</v>
-      </c>
-      <c r="V29" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="28">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="59" t="s">
-        <v>342</v>
-      </c>
-      <c r="H30" s="91">
-        <v>280</v>
-      </c>
-      <c r="I30" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="50" t="s">
-        <v>344</v>
-      </c>
-      <c r="K30" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="L30" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M30" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="P30" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q30" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30">
-        <v>6</v>
-      </c>
-      <c r="S30" t="s">
-        <v>242</v>
-      </c>
-      <c r="T30" t="s">
-        <v>243</v>
-      </c>
-      <c r="U30" s="95" t="s">
-        <v>367</v>
-      </c>
-      <c r="V30" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="56">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="H31" s="91">
-        <v>290</v>
-      </c>
-      <c r="I31" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="K31" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="L31" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M31" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="N31" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="O31" s="39"/>
-      <c r="P31" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q31" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="R31">
-        <v>6</v>
-      </c>
-      <c r="S31" t="s">
-        <v>241</v>
-      </c>
-      <c r="T31" t="s">
-        <v>244</v>
-      </c>
-      <c r="U31" s="95" t="s">
-        <v>368</v>
-      </c>
-      <c r="V31" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="28">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D32" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="E32" s="56" t="s">
-        <v>351</v>
-      </c>
-      <c r="F32" s="62"/>
-      <c r="G32" s="59" t="s">
-        <v>352</v>
-      </c>
-      <c r="H32" s="91">
-        <v>300</v>
-      </c>
-      <c r="I32" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="K32" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="L32" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M32" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="P32" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q32" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32">
-        <v>6</v>
-      </c>
-      <c r="S32" t="s">
-        <v>242</v>
-      </c>
-      <c r="T32" t="s">
-        <v>243</v>
-      </c>
-      <c r="U32" s="95" t="s">
-        <v>369</v>
-      </c>
-      <c r="V32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="28">
-      <c r="A33" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D33" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="55">
-        <v>310</v>
-      </c>
-      <c r="I33" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="L33" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M33" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q33" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="40"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="52"/>
-    </row>
-    <row r="34" spans="1:22" s="31" customFormat="1" ht="28">
-      <c r="A34" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="E34" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="F34" s="62"/>
-      <c r="G34" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="H34" s="57">
-        <v>320</v>
-      </c>
-      <c r="I34" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="50" t="s">
-        <v>355</v>
-      </c>
-      <c r="K34" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="L34" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M34" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="P34" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q34" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34">
-        <v>6</v>
-      </c>
-      <c r="S34" t="s">
-        <v>242</v>
-      </c>
-      <c r="T34" t="s">
-        <v>243</v>
-      </c>
-      <c r="U34" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="V34" t="s">
-        <v>251</v>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" t="s">
-        <v>89</v>
-      </c>
-      <c r="J38" t="s">
-        <v>91</v>
-      </c>
-      <c r="L38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="E41" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" t="s">
-        <v>216</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
-      <c r="A75" t="s">
+    <row r="74" spans="1:13">
+      <c r="A74" t="s">
         <v>128</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C74" t="s">
         <v>129</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E74" t="s">
         <v>130</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J74" t="s">
         <v>131</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M74" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
         <v>205</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="P1:P2"/>
@@ -9271,29 +9031,35 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A12 A14:A34">
-      <formula1>$C$36:$G$36</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A12 A14:A33">
+      <formula1>$C$35:$G$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L12 L14:L34">
-      <formula1>$C$37:$D$37</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L12 L14:L33">
+      <formula1>$C$36:$D$36</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M12 M14:M34">
-      <formula1>$C$38:$L$38</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M12 M14:M33">
+      <formula1>$C$37:$L$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N12 N14:N34">
-      <formula1>$A$40:$A$52</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N12 N14:N33">
+      <formula1>$A$39:$A$51</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O12 O14:O34">
-      <formula1>$A$77:$A$166</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O12 O14:O33">
+      <formula1>$A$76:$A$165</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K12 K14:K34">
-      <formula1>$E$42:$E$46</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K12 K14:K33">
+      <formula1>$E$41:$E$45</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/fuentes/contenidos/grado06/guion01/ESCALETA_MA_06_01_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion01/ESCALETA_MA_06_01_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="960" windowWidth="24600" windowHeight="13720" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="364">
   <si>
     <t>Asignatura</t>
   </si>
@@ -725,12 +725,6 @@
     <t>Recurso M3B-01</t>
   </si>
   <si>
-    <t xml:space="preserve">En esta actividad se busca indagar sobre la comprensión de las temáticas abordadas a tráves de un test en el que se presenten situaciones y ejercicios sobre los temas vistos. </t>
-  </si>
-  <si>
-    <t>En este recurso se presenta el mapa conceptual que expone la temática de lógica y conjuntos</t>
-  </si>
-  <si>
     <t>Las proposiciones en juegos de lógica</t>
   </si>
   <si>
@@ -833,9 +827,6 @@
     <t>Autoevaluación</t>
   </si>
   <si>
-    <t>Analizando la solución a una situación problema</t>
-  </si>
-  <si>
     <t>Reconoce conectores en una proposición</t>
   </si>
   <si>
@@ -911,9 +902,6 @@
     <t>Interactivo para analizar textos desde las proposiciones lógicas</t>
   </si>
   <si>
-    <t>Actividad para analizar y plantear la solución a una situación problema</t>
-  </si>
-  <si>
     <t>Los cuantificadores</t>
   </si>
   <si>
@@ -962,15 +950,9 @@
     <t>Identifica relaciones entre conjuntos</t>
   </si>
   <si>
-    <t>Conceptos sobre conjuntos</t>
-  </si>
-  <si>
     <t>Actividad para reconocer la relación que se presenta entre dos conjuntos</t>
   </si>
   <si>
-    <t>Actividad para reforzar conceptos básicos sobre conjuntos</t>
-  </si>
-  <si>
     <t>Planear conjuntos interesantes en los cuales haya que determinar la relación existente. Pueden ser numéricos pero también incuir conjuntos de otras categorías</t>
   </si>
   <si>
@@ -1028,24 +1010,9 @@
     <t>Interactivo para presentar gráficamente el complemento y la diferencia entre conjuntos</t>
   </si>
   <si>
-    <t>Practica las relaciones entre conjuntos</t>
-  </si>
-  <si>
-    <t>Practica las operaciones entre conjuntos</t>
-  </si>
-  <si>
-    <t>Actividad para determinar la relación entre dos conjuntos</t>
-  </si>
-  <si>
-    <t>Actividad para hallar el resultado de las operaciones entre dos conjuntos</t>
-  </si>
-  <si>
     <t>Plantear conjuntos variados y preguntar por la relación entre ellos</t>
   </si>
   <si>
-    <t>Plantear conjuntos variados y preguntar por el resultado de varias operaciones entre ellos</t>
-  </si>
-  <si>
     <t>Solución de problemas utilizando conjuntos</t>
   </si>
   <si>
@@ -1079,9 +1046,6 @@
     <t>Presentar las relaciones entre conjuntos y ejemplos tanto con conjuntos numéricos como con conjuntos de otras categorías</t>
   </si>
   <si>
-    <t>Que sea una verificacion conceptual</t>
-  </si>
-  <si>
     <t>Recurso M3B-02</t>
   </si>
   <si>
@@ -1106,18 +1070,12 @@
     <t>Recurso M7A-02</t>
   </si>
   <si>
-    <t>Recurso M5A-04</t>
-  </si>
-  <si>
     <t>Recurso F13B-01</t>
   </si>
   <si>
     <t>Recurso M102AB-01</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Analizando la solución a una situación problema</t>
-  </si>
-  <si>
     <t>Hay que explicar las determinaciones por extensión y por comprensión y plantear buenos ejemplos, interesantes para los niños de esta edad. Proponer cosas de buen nivel. Además, Hay que explicar los tipos de conjuntos (Unitario, vacío, Universal etc) y proponer muy buenos ejemplos de esta clasificación.</t>
   </si>
   <si>
@@ -1125,6 +1083,39 @@
   </si>
   <si>
     <t>Interactivo que explica la forma de determinar un conjunto y cómo se clasifica según sus características</t>
+  </si>
+  <si>
+    <t>Mapa conceptual sobre el tema de la lógica y los conjuntos</t>
+  </si>
+  <si>
+    <t>Evaluación sobre el tema la lógica y los conjuntos</t>
+  </si>
+  <si>
+    <t>Analiza la solución a una situación problema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para reforzar conceptos básicos sobre conjuntos </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Que sea una verificación conceptual</t>
+  </si>
+  <si>
+    <t>Competencias</t>
+  </si>
+  <si>
+    <t>Actividad para practicar los conceptos de relaciones y operaciones entre conjuntos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje:  las relaciones y las operaciones entre conjuntos</t>
+  </si>
+  <si>
+    <t>Actividad para analizar y plantear la solución a una situación de lógica</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: conceptos sobre conjuntos</t>
   </si>
 </sst>
 </file>
@@ -1536,42 +1527,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1678,80 +1633,116 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="73">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6344,10 +6335,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X165"/>
+  <dimension ref="A1:X164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6376,2648 +6367,2599 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>278</v>
+      <c r="D1" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>275</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="G1" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="34" t="s">
+      <c r="O1" s="77"/>
+      <c r="P1" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="80" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="32"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="40"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="71"/>
       <c r="N2" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O2" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="35"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="80"/>
     </row>
     <row r="3" spans="1:24" ht="56">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="48" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="37">
+        <v>10</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="40"/>
+      <c r="P3" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="43">
+        <v>6</v>
+      </c>
+      <c r="S3" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="T3" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="U3" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="V3" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="31" customFormat="1" ht="98">
+      <c r="A4" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="H3" s="49">
-        <v>10</v>
-      </c>
-      <c r="I3" s="48" t="s">
+      <c r="H4" s="37">
+        <v>20</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q3" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="55">
+      <c r="R4" s="41">
         <v>6</v>
       </c>
-      <c r="S3" s="56" t="s">
+      <c r="S4" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="T4" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="T3" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="U3" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="V3" s="57" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="31" customFormat="1" ht="98">
-      <c r="A4" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="48" t="s">
-        <v>275</v>
-      </c>
-      <c r="H4" s="49">
-        <v>20</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K4" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="P4" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q4" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="53">
-        <v>6</v>
-      </c>
-      <c r="S4" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="T4" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="V4" s="60" t="s">
-        <v>251</v>
+      <c r="V4" s="48" t="s">
+        <v>249</v>
       </c>
       <c r="X4" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="31" customFormat="1" ht="30">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="48" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="37">
+        <v>30</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q5" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="R5" s="43">
+        <v>6</v>
+      </c>
+      <c r="S5" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T5" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="U5" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="V5" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="31" customFormat="1" ht="30">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="H5" s="49">
-        <v>30</v>
-      </c>
-      <c r="I5" s="48" t="s">
+      <c r="H6" s="37">
+        <v>40</v>
+      </c>
+      <c r="I6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J6" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="L5" s="51" t="s">
+      <c r="K6" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="L6" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M6" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="P5" s="53" t="s">
+      <c r="N6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q6" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="Q5" s="54" t="s">
+      <c r="R6" s="43">
+        <v>6</v>
+      </c>
+      <c r="S6" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="U6" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="V6" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="31" customFormat="1" ht="112">
+      <c r="A7" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="52">
+        <v>50</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="40"/>
+      <c r="P7" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="R5" s="55">
+      <c r="Q7" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="41">
         <v>6</v>
       </c>
-      <c r="S5" s="56" t="s">
+      <c r="S7" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="T7" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="T5" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="U5" s="58" t="s">
-        <v>247</v>
-      </c>
-      <c r="V5" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="31" customFormat="1" ht="30">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6" s="49">
-        <v>40</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="K6" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="L6" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="P6" s="53" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q6" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="R6" s="55">
-        <v>6</v>
-      </c>
-      <c r="S6" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="T6" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="U6" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="V6" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="31" customFormat="1" ht="112">
-      <c r="A7" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63" t="s">
-        <v>230</v>
-      </c>
-      <c r="H7" s="64">
-        <v>50</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="K7" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="L7" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="N7" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="O7" s="52"/>
-      <c r="P7" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q7" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="53">
-        <v>6</v>
-      </c>
-      <c r="S7" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="T7" s="60" t="s">
-        <v>244</v>
-      </c>
-      <c r="U7" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="V7" s="60" t="s">
-        <v>250</v>
+      <c r="U7" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="V7" s="48" t="s">
+        <v>248</v>
       </c>
       <c r="X7" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="31" customFormat="1" ht="70">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="H8" s="66">
+      <c r="F8" s="50"/>
+      <c r="G8" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="54">
         <v>60</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="50" t="s">
+      <c r="M8" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52" t="s">
+      <c r="N8" s="40"/>
+      <c r="O8" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="P8" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q8" s="54" t="s">
+      <c r="P8" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="55">
+      <c r="R8" s="43">
         <v>6</v>
       </c>
-      <c r="S8" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="T8" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="U8" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="V8" s="57" t="s">
-        <v>251</v>
+      <c r="S8" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T8" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="U8" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="V8" s="45" t="s">
+        <v>249</v>
       </c>
       <c r="X8" s="31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="31" customFormat="1" ht="42">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="H9" s="54">
+        <v>70</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="40"/>
+      <c r="P9" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="Q9" s="42"/>
+      <c r="R9" s="43">
+        <v>6</v>
+      </c>
+      <c r="S9" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="T9" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="U9" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="V9" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="98">
+      <c r="A10" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="37">
+        <v>80</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="H9" s="66">
-        <v>70</v>
-      </c>
-      <c r="I9" s="65" t="s">
+      <c r="K10" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q10" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="67" t="s">
-        <v>291</v>
-      </c>
-      <c r="K9" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="L9" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="N9" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="O9" s="52"/>
-      <c r="P9" s="53" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="55">
+      <c r="R10" s="41">
         <v>6</v>
       </c>
-      <c r="S9" s="56" t="s">
+      <c r="S10" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="T10" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="T9" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="U9" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="V9" s="57" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="98">
-      <c r="A10" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>289</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="H10" s="49">
-        <v>80</v>
-      </c>
-      <c r="I10" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>293</v>
-      </c>
-      <c r="K10" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q10" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="53">
-        <v>6</v>
-      </c>
-      <c r="S10" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="T10" s="60" t="s">
+      <c r="U10" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="U10" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="V10" s="60" t="s">
-        <v>251</v>
+      <c r="V10" s="48" t="s">
+        <v>249</v>
       </c>
       <c r="X10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="140">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="47" t="s">
+      <c r="B11" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="F11" s="62" t="s">
-        <v>289</v>
-      </c>
-      <c r="G11" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="H11" s="64">
+      <c r="F11" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="52">
         <v>90</v>
       </c>
-      <c r="I11" s="65" t="s">
+      <c r="I11" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="K11" s="50" t="s">
+      <c r="J11" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="K11" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="L11" s="51" t="s">
+      <c r="L11" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="50" t="s">
+      <c r="M11" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="N11" s="52" t="s">
+      <c r="N11" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="O11" s="52"/>
-      <c r="P11" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q11" s="54" t="s">
+      <c r="O11" s="40"/>
+      <c r="P11" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q11" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="R11" s="55">
+      <c r="R11" s="43">
         <v>6</v>
       </c>
-      <c r="S11" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="T11" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="U11" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="V11" s="57" t="s">
-        <v>250</v>
+      <c r="S11" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="T11" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="U11" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="V11" s="45" t="s">
+        <v>248</v>
       </c>
       <c r="X11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="112">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="H12" s="54">
+        <v>100</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" s="40"/>
+      <c r="P12" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q12" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="41">
+        <v>6</v>
+      </c>
+      <c r="S12" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="T12" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="U12" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="V12" s="48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="28">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="H13" s="60">
+        <v>110</v>
+      </c>
+      <c r="I13" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="K13" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="L13" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q13" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="43">
+        <v>6</v>
+      </c>
+      <c r="S13" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T13" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="U13" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="V13" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="70">
+      <c r="A14" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="H14" s="37">
+        <v>120</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="P14" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q14" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" s="41">
+        <v>6</v>
+      </c>
+      <c r="S14" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="T14" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="U14" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="V14" s="48" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="28">
+      <c r="A15" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D15" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>289</v>
-      </c>
-      <c r="G12" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="H12" s="66">
+      <c r="E15" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="H15" s="37">
+        <v>130</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="P15" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q15" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="41">
+        <v>6</v>
+      </c>
+      <c r="S15" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="T15" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="U15" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="V15" s="48" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="56">
+      <c r="A16" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="H16" s="52">
+        <v>140</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="O16" s="40"/>
+      <c r="P16" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q16" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="43">
+        <v>6</v>
+      </c>
+      <c r="S16" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="T16" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="U16" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="V16" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="28">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="H17" s="54">
+        <v>150</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="P17" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q17" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="R17" s="43">
+        <v>6</v>
+      </c>
+      <c r="S17" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T17" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="U17" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="V17" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="28">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="H18" s="54">
+        <v>160</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="O18" s="40"/>
+      <c r="P18" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="R18" s="43">
+        <v>6</v>
+      </c>
+      <c r="S18" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="T18" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="U18" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="V18" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="28">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="H19" s="54">
+        <v>170</v>
+      </c>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q19" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="R19" s="43">
+        <v>6</v>
+      </c>
+      <c r="S19" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T19" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="U19" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="V19" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="91" customHeight="1">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="H20" s="54">
+        <v>180</v>
+      </c>
+      <c r="I20" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="J20" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q20" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="43">
+        <v>6</v>
+      </c>
+      <c r="S20" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T20" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="U20" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="V20" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="28">
+      <c r="A21" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" s="50"/>
+      <c r="G21" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="H21" s="52">
+        <v>190</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q21" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" s="43">
+        <v>6</v>
+      </c>
+      <c r="S21" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T21" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="U21" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="V21" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="56">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" s="50"/>
+      <c r="G22" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="H22" s="52">
+        <v>200</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" s="40"/>
+      <c r="P22" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q22" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="43">
+        <v>6</v>
+      </c>
+      <c r="S22" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="T22" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="U22" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="V22" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="28">
+      <c r="A23" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="G23" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="H23" s="54">
+        <v>210</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="P23" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q23" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" s="43">
+        <v>6</v>
+      </c>
+      <c r="S23" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T23" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="U23" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="V23" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="84">
+      <c r="A24" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="50"/>
+      <c r="G24" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="H24" s="37">
+        <v>220</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="68" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q24" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="43">
+        <v>6</v>
+      </c>
+      <c r="S24" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T24" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="U24" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="V24" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="88.5" customHeight="1">
+      <c r="A25" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="50"/>
+      <c r="G25" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="H25" s="37">
+        <v>230</v>
+      </c>
+      <c r="I25" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q25" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="43">
+        <v>6</v>
+      </c>
+      <c r="S25" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T25" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="U25" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="V25" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="28">
+      <c r="A26" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="50"/>
+      <c r="G26" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="H26" s="52">
+        <v>240</v>
+      </c>
+      <c r="I26" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q26" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" s="43">
+        <v>6</v>
+      </c>
+      <c r="S26" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T26" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="U26" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="V26" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="42">
+      <c r="A27" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" s="50"/>
+      <c r="G27" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="H27" s="52">
+        <v>250</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="N27" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q27" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R27" s="43">
+        <v>6</v>
+      </c>
+      <c r="S27" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="T27" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="U27" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="V27" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="28">
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" s="50"/>
+      <c r="G28" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="H28" s="52">
+        <v>260</v>
+      </c>
+      <c r="I28" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="55" t="s">
+        <v>360</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="P28" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q28" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="43">
+        <v>6</v>
+      </c>
+      <c r="S28" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T28" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="U28" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="V28" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="56">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="H29" s="52">
+        <v>270</v>
+      </c>
+      <c r="I29" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="K29" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="N29" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q29" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="43">
+        <v>6</v>
+      </c>
+      <c r="S29" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="T29" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="U29" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="V29" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="28">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="F30" s="50"/>
+      <c r="G30" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="H30" s="52">
+        <v>280</v>
+      </c>
+      <c r="I30" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="55" t="s">
+        <v>335</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="P30" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q30" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" s="43">
+        <v>6</v>
+      </c>
+      <c r="S30" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T30" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="U30" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="V30" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15">
+      <c r="A31" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="50"/>
+      <c r="G31" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="54">
+        <v>300</v>
+      </c>
+      <c r="I31" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q31" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R31" s="41"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="70"/>
+    </row>
+    <row r="32" spans="1:22" s="31" customFormat="1" ht="15">
+      <c r="A32" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="50"/>
+      <c r="G32" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="37">
+        <v>310</v>
+      </c>
+      <c r="I32" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="P32" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q32" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="43">
+        <v>6</v>
+      </c>
+      <c r="S32" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T32" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="U32" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="V32" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="K12" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="L12" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="O12" s="52"/>
-      <c r="P12" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q12" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="53">
-        <v>6</v>
-      </c>
-      <c r="S12" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="T12" s="60" t="s">
-        <v>244</v>
-      </c>
-      <c r="U12" s="61" t="s">
-        <v>256</v>
-      </c>
-      <c r="V12" s="60" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="28">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>296</v>
-      </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71" t="s">
-        <v>297</v>
-      </c>
-      <c r="H13" s="72">
-        <v>110</v>
-      </c>
-      <c r="I13" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="73" t="s">
-        <v>298</v>
-      </c>
-      <c r="K13" s="74" t="s">
+      <c r="E43" t="s">
         <v>215</v>
       </c>
-      <c r="L13" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="P13" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q13" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="55">
-        <v>6</v>
-      </c>
-      <c r="S13" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="T13" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="U13" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="V13" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="70">
-      <c r="A14" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="H14" s="49">
-        <v>120</v>
-      </c>
-      <c r="I14" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="67" t="s">
-        <v>295</v>
-      </c>
-      <c r="K14" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="L14" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="P14" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q14" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="53">
-        <v>6</v>
-      </c>
-      <c r="S14" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="T14" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="U14" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="V14" s="60" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="28">
-      <c r="A15" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="65" t="s">
-        <v>300</v>
-      </c>
-      <c r="H15" s="49">
-        <v>130</v>
-      </c>
-      <c r="I15" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="67" t="s">
-        <v>301</v>
-      </c>
-      <c r="K15" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="L15" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="P15" s="53" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q15" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="53">
-        <v>6</v>
-      </c>
-      <c r="S15" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="T15" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="U15" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="V15" s="60" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="56">
-      <c r="A16" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="79" t="s">
-        <v>221</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>365</v>
-      </c>
-      <c r="H16" s="64">
-        <v>140</v>
-      </c>
-      <c r="I16" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="67" t="s">
-        <v>366</v>
-      </c>
-      <c r="K16" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="L16" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="N16" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="O16" s="52"/>
-      <c r="P16" s="53" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q16" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="55">
-        <v>6</v>
-      </c>
-      <c r="S16" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="T16" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="U16" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="V16" s="57" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="28">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>221</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="F17" s="62" t="s">
-        <v>305</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>308</v>
-      </c>
-      <c r="H17" s="66">
-        <v>150</v>
-      </c>
-      <c r="I17" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="K17" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="L17" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="P17" s="53" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q17" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="R17" s="55">
-        <v>6</v>
-      </c>
-      <c r="S17" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="T17" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="U17" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="V17" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="28">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D18" s="79" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="F18" s="62" t="s">
-        <v>222</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="H18" s="66">
-        <v>160</v>
-      </c>
-      <c r="I18" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="K18" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="L18" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="N18" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="O18" s="52"/>
-      <c r="P18" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q18" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="R18" s="55">
-        <v>6</v>
-      </c>
-      <c r="S18" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="T18" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="U18" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="V18" s="57" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="28">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="79" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="H19" s="66">
-        <v>170</v>
-      </c>
-      <c r="I19" s="65"/>
-      <c r="J19" s="67" t="s">
-        <v>313</v>
-      </c>
-      <c r="K19" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M19" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q19" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="R19" s="55">
-        <v>6</v>
-      </c>
-      <c r="S19" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="T19" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="U19" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="V19" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="15">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="79" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="65" t="s">
-        <v>312</v>
-      </c>
-      <c r="H20" s="66">
-        <v>180</v>
-      </c>
-      <c r="I20" s="65"/>
-      <c r="J20" s="67" t="s">
-        <v>314</v>
-      </c>
-      <c r="K20" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="L20" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="P20" s="53" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q20" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="55">
-        <v>6</v>
-      </c>
-      <c r="S20" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="T20" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="U20" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="V20" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="140">
-      <c r="A21" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" s="79" t="s">
-        <v>221</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="H21" s="64">
-        <v>190</v>
-      </c>
-      <c r="I21" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="67" t="s">
-        <v>316</v>
-      </c>
-      <c r="K21" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="L21" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="P21" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q21" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="55">
-        <v>6</v>
-      </c>
-      <c r="S21" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="T21" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="U21" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="V21" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="56">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>225</v>
-      </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="65" t="s">
-        <v>317</v>
-      </c>
-      <c r="H22" s="64">
-        <v>200</v>
-      </c>
-      <c r="I22" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="67" t="s">
-        <v>318</v>
-      </c>
-      <c r="K22" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="L22" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="N22" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="O22" s="52"/>
-      <c r="P22" s="53" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q22" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="R22" s="55">
-        <v>6</v>
-      </c>
-      <c r="S22" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="T22" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="U22" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="V22" s="57" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="28">
-      <c r="A23" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D23" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="E23" s="62" t="s">
-        <v>225</v>
-      </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="65" t="s">
-        <v>324</v>
-      </c>
-      <c r="H23" s="66">
-        <v>210</v>
-      </c>
-      <c r="I23" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="67" t="s">
-        <v>321</v>
-      </c>
-      <c r="K23" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="L23" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M23" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="P23" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q23" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23" s="55">
-        <v>6</v>
-      </c>
-      <c r="S23" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="T23" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="U23" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="V23" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="84">
-      <c r="A24" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="E24" s="62" t="s">
-        <v>225</v>
-      </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="65" t="s">
-        <v>322</v>
-      </c>
-      <c r="H24" s="49">
-        <v>220</v>
-      </c>
-      <c r="I24" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="67" t="s">
-        <v>323</v>
-      </c>
-      <c r="K24" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="L24" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M24" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="P24" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q24" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24" s="55">
-        <v>6</v>
-      </c>
-      <c r="S24" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="T24" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="U24" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="V24" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="88.5" customHeight="1">
-      <c r="A25" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D25" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="E25" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="65" t="s">
-        <v>325</v>
-      </c>
-      <c r="H25" s="49">
-        <v>230</v>
-      </c>
-      <c r="I25" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="67" t="s">
-        <v>326</v>
-      </c>
-      <c r="K25" s="50" t="s">
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
         <v>216</v>
       </c>
-      <c r="L25" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="P25" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q25" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="R25" s="55">
-        <v>6</v>
-      </c>
-      <c r="S25" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="T25" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="U25" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="V25" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="28">
-      <c r="A26" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="65" t="s">
-        <v>328</v>
-      </c>
-      <c r="H26" s="64">
-        <v>240</v>
-      </c>
-      <c r="I26" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="67" t="s">
-        <v>329</v>
-      </c>
-      <c r="K26" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="L26" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M26" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="P26" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q26" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26" s="55">
-        <v>6</v>
-      </c>
-      <c r="S26" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="T26" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="U26" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="V26" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="42">
-      <c r="A27" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="65" t="s">
-        <v>331</v>
-      </c>
-      <c r="H27" s="64">
-        <v>250</v>
-      </c>
-      <c r="I27" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="67" t="s">
-        <v>333</v>
-      </c>
-      <c r="K27" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="L27" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M27" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="N27" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="O27" s="52"/>
-      <c r="P27" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q27" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" s="55">
-        <v>6</v>
-      </c>
-      <c r="S27" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="T27" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="U27" s="58" t="s">
-        <v>358</v>
-      </c>
-      <c r="V27" s="57" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="15">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="65" t="s">
-        <v>334</v>
-      </c>
-      <c r="H28" s="64">
-        <v>260</v>
-      </c>
-      <c r="I28" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="67" t="s">
-        <v>336</v>
-      </c>
-      <c r="K28" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="L28" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M28" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="P28" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q28" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" s="55">
-        <v>6</v>
-      </c>
-      <c r="S28" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="T28" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="U28" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="V28" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="28">
-      <c r="A29" s="45"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="65" t="s">
-        <v>335</v>
-      </c>
-      <c r="H29" s="64">
-        <v>270</v>
-      </c>
-      <c r="I29" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="67" t="s">
-        <v>337</v>
-      </c>
-      <c r="K29" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="L29" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M29" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="P29" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q29" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R29" s="55">
-        <v>6</v>
-      </c>
-      <c r="S29" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="T29" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="U29" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="V29" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="56">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="65" t="s">
-        <v>340</v>
-      </c>
-      <c r="H30" s="64">
-        <v>280</v>
-      </c>
-      <c r="I30" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="67" t="s">
-        <v>341</v>
-      </c>
-      <c r="K30" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="L30" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M30" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="N30" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="O30" s="52"/>
-      <c r="P30" s="53" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q30" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="R30" s="55">
-        <v>6</v>
-      </c>
-      <c r="S30" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="T30" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="U30" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="V30" s="57" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="28">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D31" s="79" t="s">
-        <v>343</v>
-      </c>
-      <c r="E31" s="62" t="s">
-        <v>344</v>
-      </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="65" t="s">
-        <v>345</v>
-      </c>
-      <c r="H31" s="64">
-        <v>290</v>
-      </c>
-      <c r="I31" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="67" t="s">
-        <v>346</v>
-      </c>
-      <c r="K31" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="L31" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M31" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="P31" s="53" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q31" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" s="55">
-        <v>6</v>
-      </c>
-      <c r="S31" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="T31" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="U31" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="V31" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="28">
-      <c r="A32" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D32" s="79" t="s">
-        <v>343</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="62"/>
-      <c r="G32" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="66">
-        <v>300</v>
-      </c>
-      <c r="I32" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="L32" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M32" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q32" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="53"/>
-      <c r="S32" s="81"/>
-      <c r="T32" s="82"/>
-      <c r="U32" s="61"/>
-      <c r="V32" s="82"/>
-    </row>
-    <row r="33" spans="1:22" s="31" customFormat="1" ht="28">
-      <c r="A33" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D33" s="79" t="s">
-        <v>343</v>
-      </c>
-      <c r="E33" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="H33" s="49">
-        <v>310</v>
-      </c>
-      <c r="I33" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="67" t="s">
-        <v>348</v>
-      </c>
-      <c r="K33" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="L33" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M33" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="P33" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q33" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="55">
-        <v>6</v>
-      </c>
-      <c r="S33" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="T33" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="U33" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="V33" s="57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" t="s">
-        <v>135</v>
-      </c>
-      <c r="G35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="A37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" t="s">
-        <v>89</v>
-      </c>
-      <c r="J37" t="s">
-        <v>91</v>
-      </c>
-      <c r="L37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="A38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="A39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
-      <c r="A40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
-      <c r="A41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="A43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
-      <c r="A44" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
-      <c r="A74" t="s">
+    <row r="73" spans="1:13">
+      <c r="A73" t="s">
         <v>128</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C73" t="s">
         <v>129</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E73" t="s">
         <v>130</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J73" t="s">
         <v>131</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M73" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
         <v>205</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="P1:P2"/>
@@ -9031,32 +8973,25 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A12 A14:A33">
-      <formula1>$C$35:$G$35</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A12 A14:A32">
+      <formula1>$C$34:$G$34</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L12 L14:L33">
-      <formula1>$C$36:$D$36</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L12 L14:L32">
+      <formula1>$C$35:$D$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M12 M14:M33">
-      <formula1>$C$37:$L$37</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M12 M14:M32">
+      <formula1>$C$36:$L$36</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N12 N14:N33">
-      <formula1>$A$39:$A$51</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N12 N14:N32">
+      <formula1>$A$38:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O12 O14:O33">
-      <formula1>$A$76:$A$165</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O12 O14:O32">
+      <formula1>$A$75:$A$164</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K12 K14:K33">
-      <formula1>$E$41:$E$45</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K12 K14:K32">
+      <formula1>$E$40:$E$44</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuentes/contenidos/grado06/guion01/ESCALETA_MA_06_01_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion01/ESCALETA_MA_06_01_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="364">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1633,13 +1633,25 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1655,18 +1667,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6337,8 +6337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6367,98 +6367,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="33.75" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="79" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="78" t="s">
         <v>275</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="77" t="s">
+      <c r="N1" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="77"/>
-      <c r="P1" s="73" t="s">
+      <c r="O1" s="81"/>
+      <c r="P1" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="79" t="s">
+      <c r="Q1" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="S1" s="82" t="s">
+      <c r="S1" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="T1" s="80" t="s">
+      <c r="T1" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="U1" s="81" t="s">
+      <c r="U1" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="V1" s="80" t="s">
+      <c r="V1" s="74" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="74"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="32"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="71"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="73"/>
       <c r="N2" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O2" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="80"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="74"/>
     </row>
     <row r="3" spans="1:24" ht="56">
       <c r="A3" s="33" t="s">
@@ -7184,9 +7184,7 @@
       <c r="D14" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="E14" s="50" t="s">
-        <v>223</v>
-      </c>
+      <c r="E14" s="50"/>
       <c r="F14" s="50"/>
       <c r="G14" s="53" t="s">
         <v>355</v>
@@ -8953,13 +8951,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="P1:P2"/>
@@ -8973,6 +8964,13 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A12 A14:A32">

--- a/fuentes/contenidos/grado06/guion01/ESCALETA_MA_06_01_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion01/ESCALETA_MA_06_01_CO.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24040" windowHeight="14200"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -18,7 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateCount="2" iterateDelta="10" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateCount="2" iterateDelta="10" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -877,7 +877,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -976,12 +976,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1003,59 +997,59 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1112,8 +1106,13 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1121,87 +1120,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1236,13 +1161,13 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,9 +1178,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1291,7 +1213,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,6 +1224,75 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1363,7 +1354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1398,7 +1389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1609,127 +1600,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="31" style="31" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="61.5703125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="11" style="32" customWidth="1"/>
-    <col min="10" max="10" width="73.5703125" style="31" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="31" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="31" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="80.42578125" style="32" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="32" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="32" customWidth="1"/>
-    <col min="18" max="18" width="23" style="31" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="31" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="31" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="31" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="31"/>
-    <col min="23" max="24" width="11.42578125" style="32"/>
-    <col min="25" max="16384" width="11.42578125" style="31"/>
+    <col min="1" max="1" width="16.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="31" style="19" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="61.5" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="11" style="20" customWidth="1"/>
+    <col min="10" max="10" width="73.5" style="19" customWidth="1"/>
+    <col min="11" max="12" width="17.5" style="19" customWidth="1"/>
+    <col min="13" max="14" width="9.33203125" style="19" customWidth="1"/>
+    <col min="15" max="15" width="80.5" style="20" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="20" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5" style="20" customWidth="1"/>
+    <col min="18" max="18" width="23" style="19" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" style="19" customWidth="1"/>
+    <col min="20" max="20" width="25.83203125" style="19" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" style="19" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" style="19"/>
+    <col min="23" max="24" width="10.83203125" style="20"/>
+    <col min="25" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:24" ht="33.75" customHeight="1">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27" t="s">
+      <c r="N1" s="81"/>
+      <c r="O1" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="84" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="40" t="s">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="74"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="42"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="85"/>
+    </row>
+    <row r="3" spans="1:24" ht="16" thickTop="1">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1739,14 +1729,14 @@
       <c r="C3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="23" t="s">
         <v>147</v>
       </c>
       <c r="F3" s="11"/>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="24" t="s">
         <v>128</v>
       </c>
       <c r="H3" s="11">
@@ -1755,7 +1745,7 @@
       <c r="I3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="25" t="s">
         <v>168</v>
       </c>
       <c r="K3" s="13" t="s">
@@ -1768,31 +1758,31 @@
         <v>54</v>
       </c>
       <c r="N3" s="14"/>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="87">
+      <c r="Q3" s="63">
         <v>6</v>
       </c>
-      <c r="R3" s="88" t="s">
+      <c r="R3" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="S3" s="89" t="s">
+      <c r="S3" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="T3" s="90" t="s">
+      <c r="T3" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="U3" s="89" t="s">
+      <c r="U3" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+    </row>
+    <row r="4" spans="1:24" ht="15">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1802,14 +1792,14 @@
       <c r="C4" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="47" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="24" t="s">
         <v>150</v>
       </c>
       <c r="H4" s="15">
@@ -1818,7 +1808,7 @@
       <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="25" t="s">
         <v>169</v>
       </c>
       <c r="K4" s="13" t="s">
@@ -1831,31 +1821,31 @@
       <c r="N4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q4" s="18">
         <v>6</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="T4" s="84" t="s">
+      <c r="T4" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+    </row>
+    <row r="5" spans="1:24" ht="15">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1865,14 +1855,14 @@
       <c r="C5" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="47" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="24" t="s">
         <v>151</v>
       </c>
       <c r="H5" s="11">
@@ -1881,7 +1871,7 @@
       <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="25" t="s">
         <v>170</v>
       </c>
       <c r="K5" s="13" t="s">
@@ -1894,31 +1884,31 @@
       <c r="N5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="87">
+      <c r="Q5" s="63">
         <v>6</v>
       </c>
-      <c r="R5" s="88" t="s">
+      <c r="R5" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="S5" s="89" t="s">
+      <c r="S5" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T5" s="90" t="s">
+      <c r="T5" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="U5" s="89" t="s">
+      <c r="U5" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+    </row>
+    <row r="6" spans="1:24" ht="15">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1928,14 +1918,14 @@
       <c r="C6" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="31"/>
+      <c r="G6" s="24" t="s">
         <v>152</v>
       </c>
       <c r="H6" s="15">
@@ -1944,7 +1934,7 @@
       <c r="I6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="25" t="s">
         <v>171</v>
       </c>
       <c r="K6" s="13" t="s">
@@ -1957,31 +1947,31 @@
       <c r="N6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="49" t="s">
+      <c r="O6" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="P6" s="50" t="s">
+      <c r="P6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="87">
+      <c r="Q6" s="63">
         <v>6</v>
       </c>
-      <c r="R6" s="88" t="s">
+      <c r="R6" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="S6" s="89" t="s">
+      <c r="S6" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="U6" s="89" t="s">
+      <c r="U6" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+    </row>
+    <row r="7" spans="1:24" ht="15">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1991,14 +1981,14 @@
       <c r="C7" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="57" t="s">
+      <c r="F7" s="31"/>
+      <c r="G7" s="34" t="s">
         <v>129</v>
       </c>
       <c r="H7" s="11">
@@ -2007,7 +1997,7 @@
       <c r="I7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="35" t="s">
         <v>172</v>
       </c>
       <c r="K7" s="13" t="s">
@@ -2020,31 +2010,31 @@
         <v>54</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="P7" s="50" t="s">
+      <c r="P7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="18">
         <v>6</v>
       </c>
-      <c r="R7" s="82" t="s">
+      <c r="R7" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="S7" s="83" t="s">
+      <c r="S7" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="T7" s="84" t="s">
+      <c r="T7" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="U7" s="83" t="s">
+      <c r="U7" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+    </row>
+    <row r="8" spans="1:24" ht="15">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -2054,14 +2044,14 @@
       <c r="C8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="59" t="s">
+      <c r="F8" s="31"/>
+      <c r="G8" s="36" t="s">
         <v>130</v>
       </c>
       <c r="H8" s="15">
@@ -2070,7 +2060,7 @@
       <c r="I8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="60" t="s">
+      <c r="J8" s="37" t="s">
         <v>173</v>
       </c>
       <c r="K8" s="13" t="s">
@@ -2083,31 +2073,31 @@
       <c r="N8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="P8" s="50" t="s">
+      <c r="P8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="87">
+      <c r="Q8" s="63">
         <v>6</v>
       </c>
-      <c r="R8" s="88" t="s">
+      <c r="R8" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="S8" s="89" t="s">
+      <c r="S8" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T8" s="90" t="s">
+      <c r="T8" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="U8" s="89" t="s">
+      <c r="U8" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+    </row>
+    <row r="9" spans="1:24" ht="15">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -2117,14 +2107,14 @@
       <c r="C9" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="59" t="s">
+      <c r="F9" s="31"/>
+      <c r="G9" s="36" t="s">
         <v>131</v>
       </c>
       <c r="H9" s="11">
@@ -2133,7 +2123,7 @@
       <c r="I9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="37" t="s">
         <v>174</v>
       </c>
       <c r="K9" s="13" t="s">
@@ -2146,31 +2136,31 @@
         <v>56</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="49" t="s">
+      <c r="O9" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="P9" s="50" t="s">
+      <c r="P9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="87">
+      <c r="Q9" s="63">
         <v>6</v>
       </c>
-      <c r="R9" s="88" t="s">
+      <c r="R9" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="S9" s="89" t="s">
+      <c r="S9" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="T9" s="90" t="s">
+      <c r="T9" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="U9" s="89" t="s">
+      <c r="U9" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+    </row>
+    <row r="10" spans="1:24" ht="15">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -2180,14 +2170,14 @@
       <c r="C10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="59" t="s">
+      <c r="F10" s="31"/>
+      <c r="G10" s="36" t="s">
         <v>153</v>
       </c>
       <c r="H10" s="15">
@@ -2196,7 +2186,7 @@
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="37" t="s">
         <v>175</v>
       </c>
       <c r="K10" s="13" t="s">
@@ -2209,31 +2199,31 @@
       <c r="N10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="P10" s="50" t="s">
+      <c r="P10" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q10" s="18">
         <v>6</v>
       </c>
-      <c r="R10" s="82" t="s">
+      <c r="R10" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="S10" s="83" t="s">
+      <c r="S10" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="T10" s="84" t="s">
+      <c r="T10" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="U10" s="83" t="s">
+      <c r="U10" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+    </row>
+    <row r="11" spans="1:24" ht="15">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -2243,14 +2233,14 @@
       <c r="C11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="59" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="36" t="s">
         <v>132</v>
       </c>
       <c r="H11" s="11">
@@ -2259,7 +2249,7 @@
       <c r="I11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="60" t="s">
+      <c r="J11" s="37" t="s">
         <v>190</v>
       </c>
       <c r="K11" s="13" t="s">
@@ -2272,31 +2262,31 @@
         <v>56</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="49" t="s">
+      <c r="O11" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="P11" s="50" t="s">
+      <c r="P11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="87">
+      <c r="Q11" s="63">
         <v>6</v>
       </c>
-      <c r="R11" s="88" t="s">
+      <c r="R11" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="S11" s="89" t="s">
+      <c r="S11" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="T11" s="90" t="s">
+      <c r="T11" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="U11" s="89" t="s">
+      <c r="U11" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+    </row>
+    <row r="12" spans="1:24" ht="15">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -2306,14 +2296,14 @@
       <c r="C12" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="59" t="s">
+      <c r="F12" s="31"/>
+      <c r="G12" s="36" t="s">
         <v>133</v>
       </c>
       <c r="H12" s="11">
@@ -2322,7 +2312,7 @@
       <c r="I12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="37" t="s">
         <v>176</v>
       </c>
       <c r="K12" s="13" t="s">
@@ -2335,31 +2325,31 @@
         <v>63</v>
       </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="49" t="s">
+      <c r="O12" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="P12" s="50" t="s">
+      <c r="P12" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="18">
         <v>6</v>
       </c>
-      <c r="R12" s="82" t="s">
+      <c r="R12" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="S12" s="83" t="s">
+      <c r="S12" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="T12" s="84" t="s">
+      <c r="T12" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+    </row>
+    <row r="13" spans="1:24" ht="15">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
@@ -2369,14 +2359,14 @@
       <c r="C13" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="62" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="39" t="s">
         <v>154</v>
       </c>
       <c r="H13" s="15">
@@ -2385,7 +2375,7 @@
       <c r="I13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="40" t="s">
         <v>177</v>
       </c>
       <c r="K13" s="13" t="s">
@@ -2398,31 +2388,31 @@
       <c r="N13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="64" t="s">
+      <c r="O13" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="P13" s="50" t="s">
+      <c r="P13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="87">
+      <c r="Q13" s="63">
         <v>6</v>
       </c>
-      <c r="R13" s="88" t="s">
+      <c r="R13" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="S13" s="89" t="s">
+      <c r="S13" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T13" s="90" t="s">
+      <c r="T13" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="U13" s="89" t="s">
+      <c r="U13" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-    </row>
-    <row r="14" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+    </row>
+    <row r="14" spans="1:24" ht="25.5" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
@@ -2432,14 +2422,14 @@
       <c r="C14" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="59" t="s">
+      <c r="F14" s="31"/>
+      <c r="G14" s="36" t="s">
         <v>155</v>
       </c>
       <c r="H14" s="11">
@@ -2448,7 +2438,7 @@
       <c r="I14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="60" t="s">
+      <c r="J14" s="37" t="s">
         <v>178</v>
       </c>
       <c r="K14" s="13" t="s">
@@ -2461,31 +2451,31 @@
       <c r="N14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="49" t="s">
+      <c r="O14" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="P14" s="50" t="s">
+      <c r="P14" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="18">
         <v>6</v>
       </c>
-      <c r="R14" s="82" t="s">
+      <c r="R14" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="S14" s="83" t="s">
+      <c r="S14" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="T14" s="84" t="s">
+      <c r="T14" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="U14" s="83" t="s">
+      <c r="U14" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+    </row>
+    <row r="15" spans="1:24" ht="15">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -2495,14 +2485,14 @@
       <c r="C15" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="59" t="s">
+      <c r="F15" s="31"/>
+      <c r="G15" s="36" t="s">
         <v>156</v>
       </c>
       <c r="H15" s="15">
@@ -2511,7 +2501,7 @@
       <c r="I15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="60" t="s">
+      <c r="J15" s="37" t="s">
         <v>193</v>
       </c>
       <c r="K15" s="13" t="s">
@@ -2524,31 +2514,31 @@
       <c r="N15" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="O15" s="49" t="s">
+      <c r="O15" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="P15" s="50" t="s">
+      <c r="P15" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q15" s="18">
         <v>6</v>
       </c>
-      <c r="R15" s="82" t="s">
+      <c r="R15" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="S15" s="83" t="s">
+      <c r="S15" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="T15" s="84" t="s">
+      <c r="T15" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="U15" s="83" t="s">
+      <c r="U15" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+    </row>
+    <row r="16" spans="1:24" ht="15">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -2558,14 +2548,14 @@
       <c r="C16" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="59" t="s">
+      <c r="F16" s="31"/>
+      <c r="G16" s="36" t="s">
         <v>191</v>
       </c>
       <c r="H16" s="11">
@@ -2574,7 +2564,7 @@
       <c r="I16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="60" t="s">
+      <c r="J16" s="37" t="s">
         <v>179</v>
       </c>
       <c r="K16" s="13" t="s">
@@ -2587,31 +2577,31 @@
         <v>63</v>
       </c>
       <c r="N16" s="7"/>
-      <c r="O16" s="49" t="s">
+      <c r="O16" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="P16" s="50" t="s">
+      <c r="P16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="87">
+      <c r="Q16" s="63">
         <v>6</v>
       </c>
-      <c r="R16" s="88" t="s">
+      <c r="R16" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="S16" s="89" t="s">
+      <c r="S16" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="T16" s="90" t="s">
+      <c r="T16" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="U16" s="89" t="s">
+      <c r="U16" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-    </row>
-    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+    </row>
+    <row r="17" spans="1:24" ht="15">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -2621,14 +2611,14 @@
       <c r="C17" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="59" t="s">
+      <c r="F17" s="31"/>
+      <c r="G17" s="36" t="s">
         <v>134</v>
       </c>
       <c r="H17" s="15">
@@ -2637,7 +2627,7 @@
       <c r="I17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="60" t="s">
+      <c r="J17" s="37" t="s">
         <v>180</v>
       </c>
       <c r="K17" s="13" t="s">
@@ -2650,31 +2640,31 @@
       <c r="N17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="49" t="s">
+      <c r="O17" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="P17" s="50" t="s">
+      <c r="P17" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="87">
+      <c r="Q17" s="63">
         <v>6</v>
       </c>
-      <c r="R17" s="88" t="s">
+      <c r="R17" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="S17" s="89" t="s">
+      <c r="S17" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T17" s="90" t="s">
+      <c r="T17" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="U17" s="89" t="s">
+      <c r="U17" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+    </row>
+    <row r="18" spans="1:24" ht="15">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
@@ -2684,14 +2674,14 @@
       <c r="C18" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="59" t="s">
+      <c r="F18" s="31"/>
+      <c r="G18" s="36" t="s">
         <v>157</v>
       </c>
       <c r="H18" s="11">
@@ -2700,7 +2690,7 @@
       <c r="I18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="60" t="s">
+      <c r="J18" s="37" t="s">
         <v>181</v>
       </c>
       <c r="K18" s="13" t="s">
@@ -2713,31 +2703,31 @@
         <v>54</v>
       </c>
       <c r="N18" s="7"/>
-      <c r="O18" s="49" t="s">
+      <c r="O18" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="P18" s="50" t="s">
+      <c r="P18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="87">
+      <c r="Q18" s="63">
         <v>6</v>
       </c>
-      <c r="R18" s="88" t="s">
+      <c r="R18" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="S18" s="89" t="s">
+      <c r="S18" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="T18" s="90" t="s">
+      <c r="T18" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="U18" s="89" t="s">
+      <c r="U18" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-    </row>
-    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+    </row>
+    <row r="19" spans="1:24" ht="15">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
@@ -2747,14 +2737,14 @@
       <c r="C19" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="59" t="s">
+      <c r="F19" s="31"/>
+      <c r="G19" s="36" t="s">
         <v>135</v>
       </c>
       <c r="H19" s="15">
@@ -2763,7 +2753,7 @@
       <c r="I19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="60" t="s">
+      <c r="J19" s="37" t="s">
         <v>182</v>
       </c>
       <c r="K19" s="13" t="s">
@@ -2776,31 +2766,31 @@
       <c r="N19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="49" t="s">
+      <c r="O19" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="P19" s="50" t="s">
+      <c r="P19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="87">
+      <c r="Q19" s="63">
         <v>6</v>
       </c>
-      <c r="R19" s="88" t="s">
+      <c r="R19" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="S19" s="89" t="s">
+      <c r="S19" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T19" s="90" t="s">
+      <c r="T19" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="U19" s="89" t="s">
+      <c r="U19" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-    </row>
-    <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+    </row>
+    <row r="20" spans="1:24" ht="15">
       <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
@@ -2810,14 +2800,14 @@
       <c r="C20" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="59" t="s">
+      <c r="F20" s="31"/>
+      <c r="G20" s="36" t="s">
         <v>158</v>
       </c>
       <c r="H20" s="11">
@@ -2826,7 +2816,7 @@
       <c r="I20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="60" t="s">
+      <c r="J20" s="37" t="s">
         <v>183</v>
       </c>
       <c r="K20" s="13" t="s">
@@ -2839,31 +2829,31 @@
       <c r="N20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="49" t="s">
+      <c r="O20" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="P20" s="50" t="s">
+      <c r="P20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="87">
+      <c r="Q20" s="63">
         <v>6</v>
       </c>
-      <c r="R20" s="88" t="s">
+      <c r="R20" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="S20" s="89" t="s">
+      <c r="S20" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T20" s="90" t="s">
+      <c r="T20" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="U20" s="89" t="s">
+      <c r="U20" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-    </row>
-    <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+    </row>
+    <row r="21" spans="1:24" ht="15">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
@@ -2873,14 +2863,14 @@
       <c r="C21" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="59" t="s">
+      <c r="F21" s="31"/>
+      <c r="G21" s="36" t="s">
         <v>159</v>
       </c>
       <c r="H21" s="11">
@@ -2889,7 +2879,7 @@
       <c r="I21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="60" t="s">
+      <c r="J21" s="37" t="s">
         <v>194</v>
       </c>
       <c r="K21" s="13" t="s">
@@ -2902,31 +2892,31 @@
       <c r="N21" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="O21" s="49" t="s">
+      <c r="O21" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="P21" s="50" t="s">
+      <c r="P21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="87">
+      <c r="Q21" s="63">
         <v>6</v>
       </c>
-      <c r="R21" s="88" t="s">
+      <c r="R21" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="S21" s="89" t="s">
+      <c r="S21" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T21" s="90" t="s">
+      <c r="T21" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="U21" s="89" t="s">
+      <c r="U21" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-    </row>
-    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+    </row>
+    <row r="22" spans="1:24" ht="15">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -2936,14 +2926,14 @@
       <c r="C22" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="59" t="s">
+      <c r="F22" s="31"/>
+      <c r="G22" s="36" t="s">
         <v>136</v>
       </c>
       <c r="H22" s="15">
@@ -2952,7 +2942,7 @@
       <c r="I22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="60" t="s">
+      <c r="J22" s="37" t="s">
         <v>184</v>
       </c>
       <c r="K22" s="13" t="s">
@@ -2965,31 +2955,31 @@
         <v>55</v>
       </c>
       <c r="N22" s="7"/>
-      <c r="O22" s="49" t="s">
+      <c r="O22" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="P22" s="50" t="s">
+      <c r="P22" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="87">
+      <c r="Q22" s="63">
         <v>6</v>
       </c>
-      <c r="R22" s="88" t="s">
+      <c r="R22" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="S22" s="89" t="s">
+      <c r="S22" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="T22" s="90" t="s">
+      <c r="T22" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="U22" s="89" t="s">
+      <c r="U22" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-    </row>
-    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+    </row>
+    <row r="23" spans="1:24" ht="15">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>125</v>
@@ -2997,14 +2987,14 @@
       <c r="C23" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="59" t="s">
+      <c r="F23" s="31"/>
+      <c r="G23" s="36" t="s">
         <v>137</v>
       </c>
       <c r="H23" s="11">
@@ -3013,7 +3003,7 @@
       <c r="I23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="60" t="s">
+      <c r="J23" s="37" t="s">
         <v>185</v>
       </c>
       <c r="K23" s="13" t="s">
@@ -3026,31 +3016,31 @@
       <c r="N23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="49" t="s">
+      <c r="O23" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="P23" s="50" t="s">
+      <c r="P23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="87">
+      <c r="Q23" s="63">
         <v>6</v>
       </c>
-      <c r="R23" s="88" t="s">
+      <c r="R23" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="S23" s="89" t="s">
+      <c r="S23" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T23" s="90" t="s">
+      <c r="T23" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="U23" s="89" t="s">
+      <c r="U23" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-    </row>
-    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+    </row>
+    <row r="24" spans="1:24" ht="15">
       <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
@@ -3060,14 +3050,14 @@
       <c r="C24" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="59" t="s">
+      <c r="F24" s="31"/>
+      <c r="G24" s="36" t="s">
         <v>138</v>
       </c>
       <c r="H24" s="15">
@@ -3076,7 +3066,7 @@
       <c r="I24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="60" t="s">
+      <c r="J24" s="37" t="s">
         <v>186</v>
       </c>
       <c r="K24" s="13" t="s">
@@ -3089,31 +3079,31 @@
       <c r="N24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O24" s="66" t="s">
+      <c r="O24" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="P24" s="50" t="s">
+      <c r="P24" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="87">
+      <c r="Q24" s="63">
         <v>6</v>
       </c>
-      <c r="R24" s="88" t="s">
+      <c r="R24" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="S24" s="89" t="s">
+      <c r="S24" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T24" s="90" t="s">
+      <c r="T24" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="U24" s="89" t="s">
+      <c r="U24" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-    </row>
-    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+    </row>
+    <row r="25" spans="1:24" ht="15">
       <c r="A25" s="8" t="s">
         <v>15</v>
       </c>
@@ -3123,14 +3113,14 @@
       <c r="C25" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="59" t="s">
+      <c r="F25" s="31"/>
+      <c r="G25" s="36" t="s">
         <v>139</v>
       </c>
       <c r="H25" s="11">
@@ -3139,7 +3129,7 @@
       <c r="I25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="60" t="s">
+      <c r="J25" s="37" t="s">
         <v>187</v>
       </c>
       <c r="K25" s="13" t="s">
@@ -3152,31 +3142,31 @@
       <c r="N25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="49" t="s">
+      <c r="O25" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="P25" s="50" t="s">
+      <c r="P25" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="87">
+      <c r="Q25" s="63">
         <v>6</v>
       </c>
-      <c r="R25" s="88" t="s">
+      <c r="R25" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="S25" s="89" t="s">
+      <c r="S25" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T25" s="90" t="s">
+      <c r="T25" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="U25" s="89" t="s">
+      <c r="U25" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-    </row>
-    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+    </row>
+    <row r="26" spans="1:24" ht="15">
       <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
@@ -3186,14 +3176,14 @@
       <c r="C26" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="59" t="s">
+      <c r="F26" s="31"/>
+      <c r="G26" s="36" t="s">
         <v>140</v>
       </c>
       <c r="H26" s="15">
@@ -3202,7 +3192,7 @@
       <c r="I26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="60" t="s">
+      <c r="J26" s="37" t="s">
         <v>188</v>
       </c>
       <c r="K26" s="13" t="s">
@@ -3215,31 +3205,31 @@
       <c r="N26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O26" s="49" t="s">
+      <c r="O26" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="P26" s="50" t="s">
+      <c r="P26" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="87">
+      <c r="Q26" s="63">
         <v>6</v>
       </c>
-      <c r="R26" s="88" t="s">
+      <c r="R26" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="S26" s="89" t="s">
+      <c r="S26" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T26" s="90" t="s">
+      <c r="T26" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="U26" s="89" t="s">
+      <c r="U26" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-    </row>
-    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+    </row>
+    <row r="27" spans="1:24" ht="15">
       <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
@@ -3249,14 +3239,14 @@
       <c r="C27" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="59" t="s">
+      <c r="F27" s="31"/>
+      <c r="G27" s="36" t="s">
         <v>160</v>
       </c>
       <c r="H27" s="11">
@@ -3265,7 +3255,7 @@
       <c r="I27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="60" t="s">
+      <c r="J27" s="37" t="s">
         <v>167</v>
       </c>
       <c r="K27" s="13" t="s">
@@ -3278,31 +3268,31 @@
         <v>55</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="49" t="s">
+      <c r="O27" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="P27" s="50" t="s">
+      <c r="P27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="87">
+      <c r="Q27" s="63">
         <v>6</v>
       </c>
-      <c r="R27" s="88" t="s">
+      <c r="R27" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="S27" s="89" t="s">
+      <c r="S27" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="T27" s="90" t="s">
+      <c r="T27" s="66" t="s">
         <v>257</v>
       </c>
-      <c r="U27" s="89" t="s">
+      <c r="U27" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-    </row>
-    <row r="28" spans="1:24" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+    </row>
+    <row r="28" spans="1:24" s="47" customFormat="1" ht="15">
       <c r="A28" s="16" t="s">
         <v>15</v>
       </c>
@@ -3312,12 +3302,12 @@
       <c r="C28" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69" t="s">
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46" t="s">
         <v>161</v>
       </c>
       <c r="H28" s="15">
@@ -3326,7 +3316,7 @@
       <c r="I28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="60" t="s">
+      <c r="J28" s="37" t="s">
         <v>189</v>
       </c>
       <c r="K28" s="13" t="s">
@@ -3339,31 +3329,31 @@
         <v>63</v>
       </c>
       <c r="N28" s="17"/>
-      <c r="O28" s="49" t="s">
+      <c r="O28" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="P28" s="50" t="s">
+      <c r="P28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="87">
+      <c r="Q28" s="63">
         <v>6</v>
       </c>
-      <c r="R28" s="88" t="s">
+      <c r="R28" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="S28" s="89" t="s">
+      <c r="S28" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="T28" s="90" t="s">
+      <c r="T28" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="U28" s="89" t="s">
+      <c r="U28" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-    </row>
-    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+    </row>
+    <row r="29" spans="1:24" ht="15">
       <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
@@ -3373,12 +3363,12 @@
       <c r="C29" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="56" t="s">
+      <c r="D29" s="42"/>
+      <c r="E29" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="59" t="s">
+      <c r="F29" s="31"/>
+      <c r="G29" s="36" t="s">
         <v>162</v>
       </c>
       <c r="H29" s="11">
@@ -3387,7 +3377,7 @@
       <c r="I29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="60" t="s">
+      <c r="J29" s="37" t="s">
         <v>192</v>
       </c>
       <c r="K29" s="13" t="s">
@@ -3400,31 +3390,31 @@
       <c r="N29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="O29" s="49" t="s">
+      <c r="O29" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="P29" s="50" t="s">
+      <c r="P29" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="87">
+      <c r="Q29" s="63">
         <v>6</v>
       </c>
-      <c r="R29" s="88" t="s">
+      <c r="R29" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="S29" s="89" t="s">
+      <c r="S29" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T29" s="90" t="s">
+      <c r="T29" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="U29" s="89" t="s">
+      <c r="U29" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-    </row>
-    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+    </row>
+    <row r="30" spans="1:24" ht="15">
       <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
@@ -3434,14 +3424,14 @@
       <c r="C30" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="59" t="s">
+      <c r="F30" s="31"/>
+      <c r="G30" s="36" t="s">
         <v>163</v>
       </c>
       <c r="H30" s="11">
@@ -3450,7 +3440,7 @@
       <c r="I30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="71" t="s">
+      <c r="J30" s="37" t="s">
         <v>195</v>
       </c>
       <c r="K30" s="13" t="s">
@@ -3463,31 +3453,31 @@
       <c r="N30" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="O30" s="49" t="s">
+      <c r="O30" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="P30" s="50" t="s">
+      <c r="P30" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="87">
+      <c r="Q30" s="63">
         <v>6</v>
       </c>
-      <c r="R30" s="88" t="s">
+      <c r="R30" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="S30" s="89" t="s">
+      <c r="S30" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T30" s="90" t="s">
+      <c r="T30" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="U30" s="89" t="s">
+      <c r="U30" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-    </row>
-    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+    </row>
+    <row r="31" spans="1:24" ht="15">
       <c r="A31" s="8" t="s">
         <v>15</v>
       </c>
@@ -3497,14 +3487,14 @@
       <c r="C31" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="54"/>
-      <c r="G31" s="59" t="s">
+      <c r="F31" s="31"/>
+      <c r="G31" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H31" s="15">
@@ -3513,7 +3503,7 @@
       <c r="I31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="60" t="s">
+      <c r="J31" s="37" t="s">
         <v>196</v>
       </c>
       <c r="K31" s="13" t="s">
@@ -3524,21 +3514,21 @@
       </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="49" t="s">
+      <c r="O31" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="P31" s="50" t="s">
+      <c r="P31" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="18"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="86"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-    </row>
-    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R31" s="61"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="62"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+    </row>
+    <row r="32" spans="1:24" ht="15">
       <c r="A32" s="8" t="s">
         <v>15</v>
       </c>
@@ -3548,14 +3538,14 @@
       <c r="C32" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="F32" s="54"/>
-      <c r="G32" s="59" t="s">
+      <c r="F32" s="31"/>
+      <c r="G32" s="36" t="s">
         <v>121</v>
       </c>
       <c r="H32" s="11">
@@ -3564,7 +3554,7 @@
       <c r="I32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="60" t="s">
+      <c r="J32" s="37" t="s">
         <v>197</v>
       </c>
       <c r="K32" s="13" t="s">
@@ -3577,49 +3567,49 @@
       <c r="N32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O32" s="49" t="s">
+      <c r="O32" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="P32" s="54" t="s">
+      <c r="P32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="87">
+      <c r="Q32" s="63">
         <v>6</v>
       </c>
-      <c r="R32" s="88" t="s">
+      <c r="R32" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="S32" s="89" t="s">
+      <c r="S32" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T32" s="90" t="s">
+      <c r="T32" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="U32" s="89" t="s">
+      <c r="U32" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+    </row>
+    <row r="33" spans="1:21" ht="15">
       <c r="A33" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="73" t="s">
+      <c r="D33" s="48"/>
+      <c r="E33" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="F33" s="54"/>
-      <c r="G33" s="74"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="50"/>
       <c r="H33" s="15">
         <v>31</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="75"/>
+      <c r="J33" s="51"/>
       <c r="K33" s="13" t="s">
         <v>20</v>
       </c>
@@ -3630,1249 +3620,1255 @@
       <c r="N33" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="87">
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="63">
         <v>6</v>
       </c>
-      <c r="R33" s="88" t="s">
+      <c r="R33" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="S33" s="89" t="s">
+      <c r="S33" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T33" s="90" t="s">
+      <c r="T33" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="U33" s="89" t="s">
+      <c r="U33" s="65" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15">
       <c r="A34" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="54"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="31"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="75"/>
+      <c r="J34" s="51"/>
       <c r="K34" s="6"/>
       <c r="L34" s="5"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="52"/>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="29"/>
+    </row>
+    <row r="35" spans="1:21" ht="15">
       <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="54"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="31"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="75"/>
+      <c r="J35" s="51"/>
       <c r="K35" s="6"/>
       <c r="L35" s="5"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="52"/>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="29"/>
+    </row>
+    <row r="36" spans="1:21" ht="15">
       <c r="A36" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="54"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="31"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="75"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="6"/>
       <c r="L36" s="5"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="52"/>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="29"/>
+    </row>
+    <row r="37" spans="1:21" ht="15">
       <c r="A37" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="54"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="31"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="75"/>
+      <c r="J37" s="51"/>
       <c r="K37" s="6"/>
       <c r="L37" s="5"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="52"/>
-    </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="29"/>
+    </row>
+    <row r="38" spans="1:21" ht="15">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="54"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="31"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="75"/>
+      <c r="J38" s="51"/>
       <c r="K38" s="6"/>
       <c r="L38" s="5"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="52"/>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="29"/>
+    </row>
+    <row r="39" spans="1:21" ht="15">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="54"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="31"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="75"/>
+      <c r="J39" s="51"/>
       <c r="K39" s="6"/>
       <c r="L39" s="5"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="52"/>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="29"/>
+    </row>
+    <row r="40" spans="1:21" ht="15">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="54"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="31"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="75"/>
+      <c r="J40" s="51"/>
       <c r="K40" s="6"/>
       <c r="L40" s="5"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="52"/>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="29"/>
+    </row>
+    <row r="41" spans="1:21" ht="15">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="54"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="31"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="75"/>
+      <c r="J41" s="51"/>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="52"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="29"/>
+    </row>
+    <row r="42" spans="1:21" ht="15">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="54"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="31"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="75"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="52"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="29"/>
+    </row>
+    <row r="43" spans="1:21" ht="15">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="54"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="31"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="75"/>
+      <c r="J43" s="51"/>
       <c r="K43" s="6"/>
       <c r="L43" s="5"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="52"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="29"/>
+    </row>
+    <row r="44" spans="1:21" ht="15">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="54"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="31"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="75"/>
+      <c r="J44" s="51"/>
       <c r="K44" s="6"/>
       <c r="L44" s="5"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="52"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="52"/>
-    </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="29"/>
+    </row>
+    <row r="45" spans="1:21" ht="15">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="54"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="31"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="75"/>
+      <c r="J45" s="51"/>
       <c r="K45" s="6"/>
       <c r="L45" s="5"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="52"/>
-    </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="29"/>
+    </row>
+    <row r="46" spans="1:21" ht="15">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="10"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="54"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="31"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="75"/>
+      <c r="J46" s="51"/>
       <c r="K46" s="6"/>
       <c r="L46" s="5"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="52"/>
-    </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="29"/>
+    </row>
+    <row r="47" spans="1:21" ht="15">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="54"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="31"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="75"/>
+      <c r="J47" s="51"/>
       <c r="K47" s="6"/>
       <c r="L47" s="5"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="52"/>
-    </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="29"/>
+    </row>
+    <row r="48" spans="1:21" ht="15">
       <c r="A48" s="3"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="54"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="31"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="75"/>
+      <c r="J48" s="51"/>
       <c r="K48" s="6"/>
       <c r="L48" s="5"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="52"/>
-    </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="29"/>
+    </row>
+    <row r="49" spans="1:21" ht="15">
       <c r="A49" s="3"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="54"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="31"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="75"/>
+      <c r="J49" s="51"/>
       <c r="K49" s="6"/>
       <c r="L49" s="5"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="52"/>
-    </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="29"/>
+    </row>
+    <row r="50" spans="1:21" ht="15">
       <c r="A50" s="3"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="54"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="31"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="75"/>
+      <c r="J50" s="51"/>
       <c r="K50" s="6"/>
       <c r="L50" s="5"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="51"/>
-      <c r="S50" s="52"/>
-      <c r="T50" s="55"/>
-      <c r="U50" s="52"/>
-    </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="29"/>
+    </row>
+    <row r="51" spans="1:21" ht="15">
       <c r="A51" s="3"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="54"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="31"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="75"/>
+      <c r="J51" s="51"/>
       <c r="K51" s="6"/>
       <c r="L51" s="5"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="55"/>
-      <c r="U51" s="52"/>
-    </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="29"/>
+    </row>
+    <row r="52" spans="1:21" ht="15">
       <c r="A52" s="3"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="54"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="31"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="75"/>
+      <c r="J52" s="51"/>
       <c r="K52" s="6"/>
       <c r="L52" s="5"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="51"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="55"/>
-      <c r="U52" s="52"/>
-    </row>
-    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="29"/>
+    </row>
+    <row r="53" spans="1:21" ht="15">
       <c r="A53" s="3"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="54"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="31"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="75"/>
+      <c r="J53" s="51"/>
       <c r="K53" s="6"/>
       <c r="L53" s="5"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="51"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="55"/>
-      <c r="U53" s="52"/>
-    </row>
-    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="29"/>
+    </row>
+    <row r="54" spans="1:21" ht="15">
       <c r="A54" s="3"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="31"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="75"/>
+      <c r="J54" s="51"/>
       <c r="K54" s="6"/>
       <c r="L54" s="5"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="51"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="55"/>
-      <c r="U54" s="52"/>
-    </row>
-    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="29"/>
+    </row>
+    <row r="55" spans="1:21" ht="15">
       <c r="A55" s="3"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="31"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="75"/>
+      <c r="J55" s="51"/>
       <c r="K55" s="6"/>
       <c r="L55" s="5"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="51"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="55"/>
-      <c r="U55" s="52"/>
-    </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="29"/>
+    </row>
+    <row r="56" spans="1:21" ht="15">
       <c r="A56" s="3"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="31"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="75"/>
+      <c r="J56" s="51"/>
       <c r="K56" s="6"/>
       <c r="L56" s="5"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="51"/>
-      <c r="S56" s="52"/>
-      <c r="T56" s="55"/>
-      <c r="U56" s="52"/>
-    </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="29"/>
+    </row>
+    <row r="57" spans="1:21" ht="15">
       <c r="A57" s="3"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="31"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="75"/>
+      <c r="J57" s="51"/>
       <c r="K57" s="6"/>
       <c r="L57" s="5"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="51"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="55"/>
-      <c r="U57" s="52"/>
-    </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="29"/>
+    </row>
+    <row r="58" spans="1:21" ht="15">
       <c r="A58" s="3"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="31"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="75"/>
+      <c r="J58" s="51"/>
       <c r="K58" s="6"/>
       <c r="L58" s="5"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="51"/>
-      <c r="S58" s="52"/>
-      <c r="T58" s="55"/>
-      <c r="U58" s="52"/>
-    </row>
-    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="29"/>
+    </row>
+    <row r="59" spans="1:21" ht="15">
       <c r="A59" s="3"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="31"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="75"/>
+      <c r="J59" s="51"/>
       <c r="K59" s="6"/>
       <c r="L59" s="5"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="51"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="55"/>
-      <c r="U59" s="52"/>
-    </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="29"/>
+    </row>
+    <row r="60" spans="1:21" ht="15">
       <c r="A60" s="3"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="31"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="75"/>
+      <c r="J60" s="51"/>
       <c r="K60" s="6"/>
       <c r="L60" s="5"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="51"/>
-      <c r="S60" s="52"/>
-      <c r="T60" s="55"/>
-      <c r="U60" s="52"/>
-    </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="29"/>
+    </row>
+    <row r="61" spans="1:21" ht="15">
       <c r="A61" s="3"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="31"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="75"/>
+      <c r="J61" s="51"/>
       <c r="K61" s="6"/>
       <c r="L61" s="5"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="51"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="55"/>
-      <c r="U61" s="52"/>
-    </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="29"/>
+    </row>
+    <row r="62" spans="1:21" ht="15">
       <c r="A62" s="3"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="54"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="31"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="75"/>
+      <c r="J62" s="51"/>
       <c r="K62" s="6"/>
       <c r="L62" s="5"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="51"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="55"/>
-      <c r="U62" s="52"/>
-    </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="29"/>
+    </row>
+    <row r="63" spans="1:21" ht="15">
       <c r="A63" s="3"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="31"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="75"/>
+      <c r="J63" s="51"/>
       <c r="K63" s="6"/>
       <c r="L63" s="5"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="51"/>
-      <c r="S63" s="52"/>
-      <c r="T63" s="55"/>
-      <c r="U63" s="52"/>
-    </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="29"/>
+    </row>
+    <row r="64" spans="1:21" ht="15">
       <c r="A64" s="3"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="54"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="31"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="75"/>
+      <c r="J64" s="51"/>
       <c r="K64" s="6"/>
       <c r="L64" s="5"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="51"/>
-      <c r="S64" s="52"/>
-      <c r="T64" s="55"/>
-      <c r="U64" s="52"/>
-    </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="32"/>
+      <c r="U64" s="29"/>
+    </row>
+    <row r="65" spans="1:21" ht="15">
       <c r="A65" s="3"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="54"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="31"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="75"/>
+      <c r="J65" s="51"/>
       <c r="K65" s="6"/>
       <c r="L65" s="5"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="51"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="55"/>
-      <c r="U65" s="52"/>
-    </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="29"/>
+    </row>
+    <row r="66" spans="1:21" ht="15">
       <c r="A66" s="3"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="31"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="75"/>
+      <c r="J66" s="51"/>
       <c r="K66" s="6"/>
       <c r="L66" s="5"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="51"/>
-      <c r="S66" s="52"/>
-      <c r="T66" s="55"/>
-      <c r="U66" s="52"/>
-    </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="32"/>
+      <c r="U66" s="29"/>
+    </row>
+    <row r="67" spans="1:21" ht="15">
       <c r="A67" s="3"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="31"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="75"/>
+      <c r="J67" s="51"/>
       <c r="K67" s="6"/>
       <c r="L67" s="5"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="51"/>
-      <c r="S67" s="52"/>
-      <c r="T67" s="55"/>
-      <c r="U67" s="52"/>
-    </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="32"/>
+      <c r="U67" s="29"/>
+    </row>
+    <row r="68" spans="1:21" ht="15">
       <c r="A68" s="3"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="81"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="54"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="31"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="75"/>
+      <c r="J68" s="51"/>
       <c r="K68" s="6"/>
       <c r="L68" s="5"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="51"/>
-      <c r="S68" s="52"/>
-      <c r="T68" s="55"/>
-      <c r="U68" s="52"/>
-    </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="32"/>
+      <c r="U68" s="29"/>
+    </row>
+    <row r="69" spans="1:21" ht="15">
       <c r="A69" s="3"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="54"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="31"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="75"/>
+      <c r="J69" s="51"/>
       <c r="K69" s="6"/>
       <c r="L69" s="5"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="54"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="51"/>
-      <c r="S69" s="52"/>
-      <c r="T69" s="55"/>
-      <c r="U69" s="52"/>
-    </row>
-    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="32"/>
+      <c r="U69" s="29"/>
+    </row>
+    <row r="70" spans="1:21" ht="15">
       <c r="A70" s="3"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="81"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="80"/>
-      <c r="H70" s="54"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="31"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="75"/>
+      <c r="J70" s="51"/>
       <c r="K70" s="6"/>
       <c r="L70" s="5"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="54"/>
-      <c r="P70" s="54"/>
-      <c r="Q70" s="52"/>
-      <c r="R70" s="51"/>
-      <c r="S70" s="52"/>
-      <c r="T70" s="55"/>
-      <c r="U70" s="52"/>
-    </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="32"/>
+      <c r="U70" s="29"/>
+    </row>
+    <row r="72" spans="1:21" hidden="1"/>
+    <row r="73" spans="1:21" hidden="1"/>
+    <row r="74" spans="1:21" hidden="1"/>
+    <row r="75" spans="1:21" hidden="1"/>
+    <row r="76" spans="1:21" hidden="1"/>
+    <row r="77" spans="1:21" hidden="1"/>
+    <row r="78" spans="1:21" hidden="1"/>
+    <row r="79" spans="1:21" hidden="1"/>
+    <row r="80" spans="1:21" hidden="1"/>
+    <row r="81" spans="1:1" hidden="1"/>
+    <row r="82" spans="1:1" hidden="1"/>
+    <row r="83" spans="1:1" hidden="1"/>
+    <row r="84" spans="1:1" hidden="1"/>
+    <row r="85" spans="1:1" hidden="1">
+      <c r="A85" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
+    <row r="86" spans="1:1" hidden="1">
+      <c r="A86" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
+    <row r="87" spans="1:1" hidden="1">
+      <c r="A87" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
+    <row r="88" spans="1:1" hidden="1">
+      <c r="A88" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
+    <row r="89" spans="1:1" hidden="1">
+      <c r="A89" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
+    <row r="90" spans="1:1" hidden="1">
+      <c r="A90" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
+    <row r="91" spans="1:1" hidden="1">
+      <c r="A91" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="31" t="s">
+    <row r="92" spans="1:1" hidden="1">
+      <c r="A92" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
+    <row r="93" spans="1:1" hidden="1">
+      <c r="A93" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="31" t="s">
+    <row r="94" spans="1:1" hidden="1">
+      <c r="A94" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="31" t="s">
+    <row r="95" spans="1:1" hidden="1">
+      <c r="A95" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="31" t="s">
+    <row r="96" spans="1:1" hidden="1">
+      <c r="A96" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="31" t="s">
+    <row r="97" spans="1:1" hidden="1">
+      <c r="A97" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="31" t="s">
+    <row r="98" spans="1:1" hidden="1">
+      <c r="A98" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="31" t="s">
+    <row r="99" spans="1:1" hidden="1">
+      <c r="A99" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="31" t="s">
+    <row r="100" spans="1:1" hidden="1">
+      <c r="A100" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="31" t="s">
+    <row r="101" spans="1:1" hidden="1">
+      <c r="A101" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="31" t="s">
+    <row r="102" spans="1:1" hidden="1">
+      <c r="A102" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
+    <row r="103" spans="1:1" hidden="1">
+      <c r="A103" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="31" t="s">
+    <row r="104" spans="1:1" hidden="1">
+      <c r="A104" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="31" t="s">
+    <row r="105" spans="1:1" hidden="1">
+      <c r="A105" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="31" t="s">
+    <row r="106" spans="1:1" hidden="1">
+      <c r="A106" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="31" t="s">
+    <row r="107" spans="1:1" hidden="1">
+      <c r="A107" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="31" t="s">
+    <row r="108" spans="1:1" hidden="1">
+      <c r="A108" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="31" t="s">
+    <row r="109" spans="1:1" hidden="1">
+      <c r="A109" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="31" t="s">
+    <row r="110" spans="1:1" hidden="1">
+      <c r="A110" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="31" t="s">
+    <row r="111" spans="1:1" hidden="1">
+      <c r="A111" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="31" t="s">
+    <row r="112" spans="1:1" hidden="1">
+      <c r="A112" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="31" t="s">
+    <row r="113" spans="1:1" hidden="1">
+      <c r="A113" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="31" t="s">
+    <row r="114" spans="1:1" hidden="1">
+      <c r="A114" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="31" t="s">
+    <row r="115" spans="1:1" hidden="1">
+      <c r="A115" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="31" t="s">
+    <row r="116" spans="1:1" hidden="1">
+      <c r="A116" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="31" t="s">
+    <row r="117" spans="1:1" hidden="1">
+      <c r="A117" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="31" t="s">
+    <row r="118" spans="1:1" hidden="1">
+      <c r="A118" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="31" t="s">
+    <row r="119" spans="1:1" hidden="1">
+      <c r="A119" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="31" t="s">
+    <row r="120" spans="1:1" hidden="1">
+      <c r="A120" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="31" t="s">
+    <row r="121" spans="1:1" hidden="1">
+      <c r="A121" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:1" hidden="1"/>
+    <row r="123" spans="1:1" hidden="1"/>
+    <row r="124" spans="1:1" hidden="1"/>
+    <row r="125" spans="1:1" hidden="1"/>
+    <row r="126" spans="1:1" hidden="1"/>
+    <row r="127" spans="1:1" hidden="1"/>
+    <row r="128" spans="1:1" hidden="1"/>
+    <row r="129" hidden="1"/>
+    <row r="130" hidden="1"/>
+    <row r="131" hidden="1"/>
+    <row r="132" hidden="1"/>
+    <row r="133" hidden="1"/>
+    <row r="134" hidden="1"/>
+    <row r="135" hidden="1"/>
+    <row r="136" hidden="1"/>
+    <row r="137" hidden="1"/>
+    <row r="138" hidden="1"/>
+    <row r="139" hidden="1"/>
+    <row r="140" hidden="1"/>
+    <row r="141" hidden="1"/>
+    <row r="142" hidden="1"/>
+    <row r="143" hidden="1"/>
+    <row r="144" hidden="1"/>
+    <row r="145" hidden="1"/>
+    <row r="146" hidden="1"/>
+    <row r="147" hidden="1"/>
+    <row r="148" hidden="1"/>
+    <row r="149" hidden="1"/>
+    <row r="150" hidden="1"/>
+    <row r="151" hidden="1"/>
+    <row r="152" hidden="1"/>
+    <row r="153" hidden="1"/>
+    <row r="154" hidden="1"/>
+    <row r="155" hidden="1"/>
+    <row r="156" hidden="1"/>
+    <row r="157" hidden="1"/>
+    <row r="158" hidden="1"/>
+    <row r="159" hidden="1"/>
+    <row r="160" hidden="1"/>
+    <row r="161" hidden="1"/>
+    <row r="162" hidden="1"/>
+    <row r="163" hidden="1"/>
+    <row r="164" hidden="1"/>
+    <row r="165" hidden="1"/>
+    <row r="166" hidden="1"/>
+    <row r="167" hidden="1"/>
+    <row r="168" hidden="1"/>
+    <row r="169" hidden="1"/>
+    <row r="170" hidden="1"/>
+    <row r="171" hidden="1"/>
+    <row r="172" hidden="1"/>
+    <row r="173" hidden="1"/>
+    <row r="174" hidden="1"/>
+    <row r="175" hidden="1"/>
+    <row r="176" hidden="1"/>
+    <row r="177" hidden="1"/>
+    <row r="178" hidden="1"/>
+    <row r="179" hidden="1"/>
+    <row r="180" hidden="1"/>
+    <row r="181" hidden="1"/>
+    <row r="182" hidden="1"/>
+    <row r="183" hidden="1"/>
+    <row r="184" hidden="1"/>
+    <row r="185" hidden="1"/>
+    <row r="186" hidden="1"/>
+    <row r="187" hidden="1"/>
+    <row r="188" hidden="1"/>
+    <row r="189" hidden="1"/>
+    <row r="190" hidden="1"/>
+    <row r="191" hidden="1"/>
+    <row r="192" hidden="1"/>
+    <row r="193" hidden="1"/>
+    <row r="194" hidden="1"/>
+    <row r="195" hidden="1"/>
+    <row r="196" hidden="1"/>
+    <row r="197" hidden="1"/>
+    <row r="198" hidden="1"/>
+    <row r="199" hidden="1"/>
+    <row r="200" hidden="1"/>
+    <row r="201" hidden="1"/>
+    <row r="202" hidden="1"/>
+    <row r="203" hidden="1"/>
+    <row r="204" hidden="1"/>
+    <row r="205" hidden="1"/>
+    <row r="206" hidden="1"/>
+    <row r="207" hidden="1"/>
+    <row r="208" hidden="1"/>
+    <row r="209" hidden="1"/>
+    <row r="210" hidden="1"/>
+    <row r="211" hidden="1"/>
+    <row r="212" hidden="1"/>
+    <row r="213" hidden="1"/>
+    <row r="214" hidden="1"/>
+    <row r="215" hidden="1"/>
+    <row r="216" hidden="1"/>
+    <row r="217" hidden="1"/>
+    <row r="218" hidden="1"/>
+    <row r="219" hidden="1"/>
+    <row r="220" hidden="1"/>
+    <row r="221" hidden="1"/>
+    <row r="222" hidden="1"/>
+    <row r="223" hidden="1"/>
+    <row r="224" hidden="1"/>
+    <row r="225" hidden="1"/>
+    <row r="226" hidden="1"/>
+    <row r="227" hidden="1"/>
+    <row r="228" hidden="1"/>
+    <row r="229" hidden="1"/>
+    <row r="230" hidden="1"/>
+    <row r="231" hidden="1"/>
+    <row r="232" hidden="1"/>
+    <row r="233" hidden="1"/>
+    <row r="234" hidden="1"/>
+    <row r="235" hidden="1"/>
+    <row r="236" hidden="1"/>
+    <row r="237" hidden="1"/>
+    <row r="238" hidden="1"/>
+    <row r="239" hidden="1"/>
+    <row r="240" hidden="1"/>
+    <row r="241" hidden="1"/>
+    <row r="242" hidden="1"/>
+    <row r="243" hidden="1"/>
+    <row r="244" hidden="1"/>
+    <row r="245" hidden="1"/>
+    <row r="246" hidden="1"/>
+    <row r="247" hidden="1"/>
+    <row r="248" hidden="1"/>
+    <row r="249" hidden="1"/>
+    <row r="250" hidden="1"/>
+    <row r="251" hidden="1"/>
+    <row r="252" hidden="1"/>
+    <row r="253" hidden="1"/>
+    <row r="254" hidden="1"/>
+    <row r="255" hidden="1"/>
+    <row r="256" hidden="1"/>
+    <row r="257" hidden="1"/>
+    <row r="258" hidden="1"/>
+    <row r="259" hidden="1"/>
+    <row r="260" hidden="1"/>
+    <row r="261" hidden="1"/>
+    <row r="262" hidden="1"/>
+    <row r="263" hidden="1"/>
+    <row r="264" hidden="1"/>
+    <row r="265" hidden="1"/>
+    <row r="266" hidden="1"/>
+    <row r="267" hidden="1"/>
+    <row r="268" hidden="1"/>
+    <row r="269" hidden="1"/>
+    <row r="270" hidden="1"/>
+    <row r="271" hidden="1"/>
+    <row r="272" hidden="1"/>
+    <row r="273" hidden="1"/>
+    <row r="274" hidden="1"/>
+    <row r="275" hidden="1"/>
+    <row r="276" hidden="1"/>
+    <row r="277" hidden="1"/>
+    <row r="278" hidden="1"/>
+    <row r="279" hidden="1"/>
+    <row r="280" hidden="1"/>
+    <row r="281" hidden="1"/>
+    <row r="282" hidden="1"/>
+    <row r="283" hidden="1"/>
+    <row r="284" hidden="1"/>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4887,12 +4883,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X12 X14:X32">
@@ -4903,7 +4893,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -4939,6 +4928,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -4947,31 +4939,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C20" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.5" style="1"/>
+    <col min="14" max="14" width="24.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4988,7 +4980,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5012,7 +5004,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5031,7 +5023,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -5050,7 +5042,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -5066,7 +5058,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5083,7 +5075,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -5100,7 +5092,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5115,7 +5107,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5130,7 +5122,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5145,7 +5137,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5160,7 +5152,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5175,7 +5167,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5190,7 +5182,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5205,7 +5197,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5220,7 +5212,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5235,7 +5227,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -5249,7 +5241,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -5263,7 +5255,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -5277,7 +5269,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -5291,7 +5283,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5306,7 +5298,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5321,7 +5313,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5336,7 +5328,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -5351,7 +5343,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -5366,7 +5358,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5381,7 +5373,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5396,7 +5388,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5411,7 +5403,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5426,7 +5418,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5441,7 +5433,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5456,7 +5448,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5471,7 +5463,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5486,7 +5478,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5501,7 +5493,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5516,7 +5508,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5531,7 +5523,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5546,7 +5538,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5561,7 +5553,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5576,7 +5568,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5591,7 +5583,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5606,7 +5598,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5621,7 +5613,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5636,7 +5628,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5651,7 +5643,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5666,7 +5658,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5681,7 +5673,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5696,7 +5688,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5711,7 +5703,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5723,7 +5715,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5735,7 +5727,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5748,7 +5740,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5761,7 +5753,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5774,7 +5766,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -5787,7 +5779,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5800,7 +5792,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5813,7 +5805,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5826,7 +5818,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5839,7 +5831,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5852,7 +5844,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5865,7 +5857,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5878,7 +5870,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5891,7 +5883,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5904,7 +5896,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5917,7 +5909,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5930,7 +5922,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5943,7 +5935,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -5956,7 +5948,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -5969,7 +5961,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -5982,7 +5974,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -5995,7 +5987,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -6009,7 +6001,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6023,7 +6015,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -6037,7 +6029,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6051,7 +6043,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6065,7 +6057,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6079,7 +6071,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6093,7 +6085,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6107,7 +6099,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6121,7 +6113,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6135,7 +6127,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -6149,7 +6141,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -6163,7 +6155,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -6177,7 +6169,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -6191,7 +6183,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -6205,7 +6197,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6219,7 +6211,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -6233,7 +6225,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -6247,7 +6239,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6261,7 +6253,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -6275,7 +6267,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -6289,7 +6281,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -6303,7 +6295,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -6317,7 +6309,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -6331,7 +6323,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -6345,7 +6337,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -6359,7 +6351,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -6373,7 +6365,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -6387,7 +6379,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -6401,7 +6393,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6415,7 +6407,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6429,7 +6421,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6443,7 +6435,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6457,7 +6449,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6471,7 +6463,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6485,7 +6477,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6499,7 +6491,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6513,7 +6505,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6527,7 +6519,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6541,7 +6533,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6555,7 +6547,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6569,7 +6561,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6583,7 +6575,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6597,7 +6589,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6611,7 +6603,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6625,7 +6617,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6639,7 +6631,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6653,7 +6645,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6667,7 +6659,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6681,7 +6673,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6695,7 +6687,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6709,7 +6701,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6723,7 +6715,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6737,7 +6729,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6751,7 +6743,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6765,7 +6757,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6779,7 +6771,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6793,7 +6785,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6807,7 +6799,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6821,7 +6813,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6835,7 +6827,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6849,7 +6841,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6863,7 +6855,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -6900,6 +6892,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>